--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8959A1D0-C8DA-44A7-B373-E4BA0B4CF473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF52A30-B1D6-4A1C-B63C-C91CA8BAC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="154">
   <si>
     <t>SiteName</t>
   </si>
@@ -514,6 +514,18 @@
   <si>
     <t>San Onofre</t>
   </si>
+  <si>
+    <t>-116.96485   </t>
+  </si>
+  <si>
+    <t>MS4-SDR-035</t>
+  </si>
+  <si>
+    <t>MS4-SDR-035A</t>
+  </si>
+  <si>
+    <t>MS4-SDR-035B</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +584,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +819,10 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,8 +1901,8 @@
       <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -2457,6 +2480,9 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
+      <c r="D31" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="24">
         <v>33.01896</v>
       </c>
@@ -2492,6 +2518,9 @@
       <c r="C32" t="s">
         <v>17</v>
       </c>
+      <c r="D32" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="24">
         <v>33.017580000000002</v>
       </c>
@@ -2527,6 +2556,9 @@
       <c r="C33" t="s">
         <v>17</v>
       </c>
+      <c r="D33" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E33" s="24">
         <v>33.015270000000001</v>
       </c>
@@ -2562,6 +2594,9 @@
       <c r="C34" t="s">
         <v>17</v>
       </c>
+      <c r="D34" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E34" s="24">
         <v>33.019030000000001</v>
       </c>
@@ -2597,6 +2632,9 @@
       <c r="C35" t="s">
         <v>17</v>
       </c>
+      <c r="D35" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E35" s="24">
         <v>33.021160000000002</v>
       </c>
@@ -2632,6 +2670,9 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
+      <c r="D36" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="24">
         <v>33.003030000000003</v>
       </c>
@@ -2667,6 +2708,9 @@
       <c r="C37" t="s">
         <v>17</v>
       </c>
+      <c r="D37" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" s="24">
         <v>33.047150000000002</v>
       </c>
@@ -2702,6 +2746,9 @@
       <c r="C38" t="s">
         <v>17</v>
       </c>
+      <c r="D38" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E38" s="24">
         <v>33.043460000000003</v>
       </c>
@@ -2737,6 +2784,9 @@
       <c r="C39" t="s">
         <v>58</v>
       </c>
+      <c r="D39" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E39" s="24">
         <v>33.374760000000002</v>
       </c>
@@ -2772,6 +2822,9 @@
       <c r="C40" t="s">
         <v>58</v>
       </c>
+      <c r="D40" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E40" s="24">
         <v>33.374769999999998</v>
       </c>
@@ -2807,6 +2860,9 @@
       <c r="C41" t="s">
         <v>58</v>
       </c>
+      <c r="D41" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E41" s="24">
         <v>33.373779999999996</v>
       </c>
@@ -2842,6 +2898,9 @@
       <c r="C42" t="s">
         <v>58</v>
       </c>
+      <c r="D42" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E42" s="24">
         <v>33.376750000000001</v>
       </c>
@@ -2877,6 +2936,9 @@
       <c r="C43" t="s">
         <v>58</v>
       </c>
+      <c r="D43" s="20" t="s">
+        <v>7</v>
+      </c>
       <c r="E43" s="24">
         <v>33.427410000000002</v>
       </c>
@@ -2976,6 +3038,84 @@
       </c>
       <c r="L45" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="40">
+        <v>32.820459999999997</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="40">
+        <v>32.821399999999997</v>
+      </c>
+      <c r="F47" s="40">
+        <v>-116.96</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="40">
+        <v>32.818899999999999</v>
+      </c>
+      <c r="F48" s="40">
+        <v>-116.959</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="L48" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2991,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,6 +3563,36 @@
       </c>
       <c r="B45" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -38781,7 +38951,7 @@
           <x14:formula1>
             <xm:f>Site_List!A2:A44</xm:f>
           </x14:formula1>
-          <xm:sqref>A9 A3:A4 A12:A13</xm:sqref>
+          <xm:sqref>A9 A12:A13 A3:A4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D5D8A4C-7990-474A-8CD9-B6CFFEB02007}">
           <x14:formula1>
@@ -38805,7 +38975,7 @@
           <x14:formula1>
             <xm:f>Site_List!A2:A43</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A19 A10:A11</xm:sqref>
+          <xm:sqref>A2 A10:A11 A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{874A2821-F529-4212-9110-6B88994B22E1}">
           <x14:formula1>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF52A30-B1D6-4A1C-B63C-C91CA8BAC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848B926-30A8-47C5-8327-CAEB46FF6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="156">
   <si>
     <t>SiteName</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>MS4-SDR-035B</t>
+  </si>
+  <si>
+    <t>MS4-LN-K01-12177-1</t>
+  </si>
+  <si>
+    <t>LN</t>
   </si>
 </sst>
 </file>
@@ -1302,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30:D43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,8 +1325,8 @@
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="34"/>
-    <col min="11" max="11" width="9.140625" style="35"/>
+    <col min="10" max="10" width="9.140625" style="35"/>
+    <col min="11" max="11" width="9.140625" style="33"/>
     <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1352,10 +1358,10 @@
       <c r="I1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="30" t="s">
         <v>69</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -1390,10 +1396,10 @@
       <c r="I2" s="34">
         <v>90</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="35">
         <v>1122</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="33">
         <v>2.5</v>
       </c>
       <c r="L2" t="s">
@@ -1428,10 +1434,10 @@
       <c r="I3" s="34">
         <v>90</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="35">
         <v>1122</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="33">
         <v>2.5</v>
       </c>
       <c r="L3" t="s">
@@ -1466,10 +1472,10 @@
       <c r="I4" s="34">
         <v>90</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="35">
         <v>1122</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>2.5</v>
       </c>
       <c r="L4" t="s">
@@ -1504,10 +1510,10 @@
       <c r="I5" s="34">
         <v>90</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="35">
         <v>1122</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <v>2.5</v>
       </c>
       <c r="L5" t="s">
@@ -1542,10 +1548,10 @@
       <c r="I6" s="34">
         <v>90</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="35">
         <v>1122</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>2.5</v>
       </c>
       <c r="L6" t="s">
@@ -1580,10 +1586,10 @@
       <c r="I7" s="34">
         <v>90</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="35">
         <v>1122</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>2.5</v>
       </c>
       <c r="L7" t="s">
@@ -1618,10 +1624,10 @@
       <c r="I8" s="34">
         <v>90</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="35">
         <v>1122</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <v>2.5</v>
       </c>
       <c r="L8" t="s">
@@ -1656,10 +1662,10 @@
       <c r="I9" s="34">
         <v>90</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="35">
         <v>1122</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>2.5</v>
       </c>
       <c r="L9" t="s">
@@ -1694,10 +1700,10 @@
       <c r="I10" s="34">
         <v>90</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="35">
         <v>1122</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>2.5</v>
       </c>
       <c r="L10" t="s">
@@ -1732,10 +1738,10 @@
       <c r="I11" s="34">
         <v>90</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="35">
         <v>1122</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>2.5</v>
       </c>
       <c r="L11" t="s">
@@ -1770,10 +1776,10 @@
       <c r="I12" s="34">
         <v>90</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="35">
         <v>1122</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>2.5</v>
       </c>
       <c r="L12" t="s">
@@ -1808,10 +1814,10 @@
       <c r="I13" s="34">
         <v>90</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="35">
         <v>1122</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>2.5</v>
       </c>
       <c r="L13" t="s">
@@ -1846,10 +1852,10 @@
       <c r="I14" s="34">
         <v>90</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="35">
         <v>1122</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>2.5</v>
       </c>
       <c r="L14" t="s">
@@ -1884,10 +1890,10 @@
       <c r="I15" s="34">
         <v>90</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>1122</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>2.5</v>
       </c>
       <c r="L15" t="s">
@@ -1922,10 +1928,10 @@
       <c r="I16" s="34">
         <v>90</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="35">
         <v>1122</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>2.5</v>
       </c>
       <c r="L16" t="s">
@@ -1960,10 +1966,10 @@
       <c r="I17" s="34">
         <v>90</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="35">
         <v>1122</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>2.5</v>
       </c>
       <c r="L17" t="s">
@@ -1998,10 +2004,10 @@
       <c r="I18" s="34">
         <v>90</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="35">
         <v>1122</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>2.5</v>
       </c>
       <c r="L18" t="s">
@@ -2036,10 +2042,10 @@
       <c r="I19" s="34">
         <v>90</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="35">
         <v>1122</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>2.5</v>
       </c>
       <c r="L19" t="s">
@@ -2074,10 +2080,10 @@
       <c r="I20" s="34">
         <v>90</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="35">
         <v>1122</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>2.5</v>
       </c>
       <c r="L20" t="s">
@@ -2112,10 +2118,10 @@
       <c r="I21" s="34">
         <v>90</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="35">
         <v>1122</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>2.5</v>
       </c>
       <c r="L21" t="s">
@@ -2150,10 +2156,10 @@
       <c r="I22" s="34">
         <v>90</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="35">
         <v>1122</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>2.5</v>
       </c>
       <c r="L22" t="s">
@@ -2191,10 +2197,10 @@
       <c r="I23" s="34">
         <v>90</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="35">
         <v>1122</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>2.5</v>
       </c>
       <c r="L23" t="s">
@@ -2232,10 +2238,10 @@
       <c r="I24" s="34">
         <v>90</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="35">
         <v>1122</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>2.5</v>
       </c>
       <c r="L24" t="s">
@@ -2270,10 +2276,10 @@
       <c r="I25" s="34">
         <v>90</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="35">
         <v>1122</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="33">
         <v>2.5</v>
       </c>
       <c r="L25" t="s">
@@ -2308,10 +2314,10 @@
       <c r="I26" s="34">
         <v>90</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="35">
         <v>1122</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <v>2.5</v>
       </c>
       <c r="L26" t="s">
@@ -2346,10 +2352,10 @@
       <c r="I27" s="34">
         <v>90</v>
       </c>
-      <c r="J27" s="34">
+      <c r="J27" s="35">
         <v>1122</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="33">
         <v>2.5</v>
       </c>
       <c r="L27" t="s">
@@ -2384,10 +2390,10 @@
       <c r="I28" s="34">
         <v>90</v>
       </c>
-      <c r="J28" s="34">
+      <c r="J28" s="35">
         <v>1122</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="33">
         <v>2.5</v>
       </c>
       <c r="L28" t="s">
@@ -2422,10 +2428,10 @@
       <c r="I29" s="34">
         <v>90</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="35">
         <v>1122</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="33">
         <v>2.5</v>
       </c>
       <c r="L29" t="s">
@@ -2460,10 +2466,10 @@
       <c r="I30" s="34">
         <v>90</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="35">
         <v>1122</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="33">
         <v>2.5</v>
       </c>
       <c r="L30" t="s">
@@ -2498,10 +2504,10 @@
       <c r="I31" s="34">
         <v>45</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="35">
         <v>464.5</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>2.5</v>
       </c>
       <c r="L31" t="s">
@@ -2536,10 +2542,10 @@
       <c r="I32" s="34">
         <v>60</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="35">
         <v>647.6</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>2.5</v>
       </c>
       <c r="L32" t="s">
@@ -2574,10 +2580,10 @@
       <c r="I33" s="34">
         <v>22.5</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="35">
         <v>223.1</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>2.5</v>
       </c>
       <c r="L33" t="s">
@@ -2612,10 +2618,10 @@
       <c r="I34" s="34">
         <v>22.5</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="35">
         <v>223.1</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="33">
         <v>2.5</v>
       </c>
       <c r="L34" t="s">
@@ -2650,10 +2656,10 @@
       <c r="I35" s="34">
         <v>90</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="35">
         <v>1122</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>2.5</v>
       </c>
       <c r="L35" t="s">
@@ -2688,10 +2694,10 @@
       <c r="I36" s="34">
         <v>90</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36" s="35">
         <v>1122</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="33">
         <v>2.5</v>
       </c>
       <c r="L36" t="s">
@@ -2726,10 +2732,10 @@
       <c r="I37" s="34">
         <v>90</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="35">
         <v>1122</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="33">
         <v>2.5</v>
       </c>
       <c r="L37" t="s">
@@ -2764,10 +2770,10 @@
       <c r="I38" s="34">
         <v>90</v>
       </c>
-      <c r="J38" s="34">
+      <c r="J38" s="35">
         <v>1122</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="33">
         <v>2.5</v>
       </c>
       <c r="L38" t="s">
@@ -2802,10 +2808,10 @@
       <c r="I39" s="34">
         <v>90</v>
       </c>
-      <c r="J39" s="34">
+      <c r="J39" s="35">
         <v>1122</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="33">
         <v>2.5</v>
       </c>
       <c r="L39" t="s">
@@ -2840,10 +2846,10 @@
       <c r="I40" s="34">
         <v>90</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="35">
         <v>1122</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="33">
         <v>2.5</v>
       </c>
       <c r="L40" t="s">
@@ -2878,10 +2884,10 @@
       <c r="I41" s="34">
         <v>22.5</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="35">
         <v>223.1</v>
       </c>
-      <c r="K41" s="35">
+      <c r="K41" s="33">
         <v>2.5</v>
       </c>
       <c r="L41" t="s">
@@ -2916,10 +2922,10 @@
       <c r="I42" s="34">
         <v>45</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="35">
         <v>464.5</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="33">
         <v>2.5</v>
       </c>
       <c r="L42" t="s">
@@ -2954,10 +2960,10 @@
       <c r="I43" s="34">
         <v>45</v>
       </c>
-      <c r="J43" s="34">
+      <c r="J43" s="35">
         <v>464.5</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="33">
         <v>2.5</v>
       </c>
       <c r="L43" t="s">
@@ -2992,10 +2998,10 @@
       <c r="I44" s="34">
         <v>90</v>
       </c>
-      <c r="J44" s="34">
+      <c r="J44" s="35">
         <v>1122</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="33">
         <v>2.5</v>
       </c>
       <c r="L44" t="s">
@@ -3030,10 +3036,10 @@
       <c r="I45" s="34">
         <v>90</v>
       </c>
-      <c r="J45" s="34">
+      <c r="J45" s="35">
         <v>1122</v>
       </c>
-      <c r="K45" s="35">
+      <c r="K45" s="33">
         <v>2.5</v>
       </c>
       <c r="L45" t="s">
@@ -3062,6 +3068,12 @@
       <c r="G46" s="39" t="s">
         <v>151</v>
       </c>
+      <c r="J46" s="35">
+        <v>893.1</v>
+      </c>
+      <c r="K46" s="33">
+        <v>2.04</v>
+      </c>
       <c r="L46" t="s">
         <v>72</v>
       </c>
@@ -3114,8 +3126,52 @@
       <c r="G48" s="39" t="s">
         <v>151</v>
       </c>
+      <c r="J48" s="35">
+        <v>893.1</v>
+      </c>
+      <c r="K48" s="33">
+        <v>2.04</v>
+      </c>
       <c r="L48" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49">
+        <v>33.508595999999997</v>
+      </c>
+      <c r="F49">
+        <v>-117.707369</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="33">
+        <v>0</v>
+      </c>
+      <c r="I49" s="34">
+        <v>90</v>
+      </c>
+      <c r="J49" s="35">
+        <v>1122</v>
+      </c>
+      <c r="K49" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3131,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:C48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3593,6 +3649,14 @@
       </c>
       <c r="C48" s="39" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848B926-30A8-47C5-8327-CAEB46FF6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB0D63-5C4D-492D-BB08-B01F814B0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="420" windowWidth="25440" windowHeight="15390" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="162">
   <si>
     <t>SiteName</t>
   </si>
@@ -531,6 +531,24 @@
   </si>
   <si>
     <t>LN</t>
+  </si>
+  <si>
+    <t>Bonita</t>
+  </si>
+  <si>
+    <t>Cactus County Park</t>
+  </si>
+  <si>
+    <t>El Camino del Norte</t>
+  </si>
+  <si>
+    <t>Flinn Springs County Park</t>
+  </si>
+  <si>
+    <t>Rain gauge</t>
+  </si>
+  <si>
+    <t>-116.9416600 </t>
   </si>
 </sst>
 </file>
@@ -1308,16 +1326,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -3136,7 +3154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>154</v>
       </c>
@@ -3174,14 +3192,256 @@
         <v>149</v>
       </c>
     </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="24">
+        <v>32.656111099999997</v>
+      </c>
+      <c r="F50" s="24">
+        <v>-117.0341667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="24">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F51" s="24">
+        <v>-117.2191667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="24">
+        <v>32.871792999999997</v>
+      </c>
+      <c r="F52" s="24">
+        <v>-116.915448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="24">
+        <v>33.1952778</v>
+      </c>
+      <c r="F53" s="24">
+        <v>-117.12638889999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="24">
+        <v>33.048333300000003</v>
+      </c>
+      <c r="F54" s="24">
+        <v>-117.2263889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="24">
+        <v>33.354669000000001</v>
+      </c>
+      <c r="F55" s="24">
+        <v>-117.251279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="24">
+        <v>32.847104000000002</v>
+      </c>
+      <c r="F56" s="24">
+        <v>-116.85780099999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="24">
+        <v>32.836359000000002</v>
+      </c>
+      <c r="F57" s="24">
+        <v>-116.899664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="24">
+        <v>33.048055599999998</v>
+      </c>
+      <c r="F58" s="24">
+        <v>-116.8608333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="24">
+        <v>33.021944400000002</v>
+      </c>
+      <c r="F59" s="24">
+        <v>-117.0825</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="24">
+        <v>32.736511</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="24">
+        <v>33.147222200000002</v>
+      </c>
+      <c r="F61" s="24">
+        <v>-117.1961111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="24">
+        <v>33.350177000000002</v>
+      </c>
+      <c r="F62" s="24">
+        <v>-117.523465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="24">
+        <v>33.000059999999998</v>
+      </c>
+      <c r="F63" s="24">
+        <v>-116.758686</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L43" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:F63">
+    <sortCondition ref="A50:A63"/>
+  </sortState>
   <conditionalFormatting sqref="E14:F14">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FC">
       <formula>NOT(ISERROR(SEARCH("FC",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3189,7 +3449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AB0D63-5C4D-492D-BB08-B01F814B0527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78570E-EAA6-4462-9393-4F401E39E6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="9" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$42</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">FinalOffsets_backup!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="162">
   <si>
     <t>SiteName</t>
   </si>
@@ -854,9 +854,6 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -865,6 +862,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -996,7 +996,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{103DA54C-ECF5-47B6-B5D0-EEF9F5CAF651}" name="FinalOffsets_backup" displayName="FinalOffsets_backup" ref="A1:D46" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D46" xr:uid="{A8AC457F-8821-47AC-AAA3-225EC0F91D79}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8663088A-4D33-4947-AFAF-DC27B2996443}" uniqueName="1" name="Site" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8663088A-4D33-4947-AFAF-DC27B2996443}" uniqueName="1" name="Site" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{7B6E26C8-2C6F-44DE-97DC-E08083625583}" uniqueName="2" name="CalculatedOffset_in" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{9DBE5914-4F4B-4643-B205-1C79639ABDED}" uniqueName="3" name="GlobalOffset_in" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{2E345F07-7D49-4951-AA5B-9009D5CD3D60}" uniqueName="4" name="FinalOffset_in" queryTableFieldId="4"/>
@@ -1326,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,45 +2952,45 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
       </c>
       <c r="E43" s="24">
-        <v>33.427410000000002</v>
+        <v>33.482542000000002</v>
       </c>
       <c r="F43" s="24">
-        <v>-117.14749999999999</v>
+        <v>-117.72039700000001</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="H43" s="33">
-        <v>-2.8740157480314963</v>
+        <v>-6.56</v>
       </c>
       <c r="I43" s="34">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J43" s="35">
-        <v>464.5</v>
+        <v>1122</v>
       </c>
       <c r="K43" s="33">
         <v>2.5</v>
       </c>
       <c r="L43" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>59</v>
@@ -3002,16 +3002,16 @@
         <v>148</v>
       </c>
       <c r="E44" s="24">
-        <v>33.482542000000002</v>
+        <v>33.481084299999999</v>
       </c>
       <c r="F44" s="24">
-        <v>-117.72039700000001</v>
+        <v>-117.70553459999999</v>
       </c>
       <c r="G44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H44" s="33">
-        <v>-6.56</v>
+        <v>-2.48</v>
       </c>
       <c r="I44" s="34">
         <v>90</v>
@@ -3026,47 +3026,41 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>147</v>
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="24">
-        <v>33.481084299999999</v>
-      </c>
-      <c r="F45" s="24">
-        <v>-117.70553459999999</v>
-      </c>
-      <c r="G45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="33">
-        <v>-2.48</v>
-      </c>
-      <c r="I45" s="34">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="E45" s="40">
+        <v>32.820459999999997</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="J45" s="35">
-        <v>1122</v>
+        <v>893.1</v>
       </c>
       <c r="K45" s="33">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="L45" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>60</v>
@@ -3078,27 +3072,21 @@
         <v>9</v>
       </c>
       <c r="E46" s="40">
-        <v>32.820459999999997</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>150</v>
+        <v>32.821399999999997</v>
+      </c>
+      <c r="F46" s="40">
+        <v>-116.96</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J46" s="35">
-        <v>893.1</v>
-      </c>
-      <c r="K46" s="33">
-        <v>2.04</v>
-      </c>
       <c r="L46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>60</v>
@@ -3110,193 +3098,184 @@
         <v>9</v>
       </c>
       <c r="E47" s="40">
-        <v>32.821399999999997</v>
+        <v>32.818899999999999</v>
       </c>
       <c r="F47" s="40">
-        <v>-116.96</v>
+        <v>-116.959</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>151</v>
       </c>
+      <c r="J47" s="35">
+        <v>893.1</v>
+      </c>
+      <c r="K47" s="33">
+        <v>2.04</v>
+      </c>
       <c r="L47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="40">
-        <v>32.818899999999999</v>
-      </c>
-      <c r="F48" s="40">
-        <v>-116.959</v>
+        <v>148</v>
+      </c>
+      <c r="E48">
+        <v>33.508595999999997</v>
+      </c>
+      <c r="F48">
+        <v>-117.707369</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0</v>
+      </c>
+      <c r="I48" s="34">
+        <v>90</v>
       </c>
       <c r="J48" s="35">
-        <v>893.1</v>
+        <v>1122</v>
       </c>
       <c r="K48" s="33">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="L48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
-      </c>
-      <c r="D49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49">
-        <v>33.508595999999997</v>
-      </c>
-      <c r="F49">
-        <v>-117.707369</v>
-      </c>
-      <c r="G49" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="33">
-        <v>0</v>
-      </c>
-      <c r="I49" s="34">
-        <v>90</v>
-      </c>
-      <c r="J49" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K49" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E49" s="24">
+        <v>32.656111099999997</v>
+      </c>
+      <c r="F49" s="24">
+        <v>-117.0341667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50" s="24">
-        <v>32.656111099999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F50" s="24">
-        <v>-117.0341667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.2191667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E51" s="24">
-        <v>33.299999999999997</v>
+        <v>32.871792999999997</v>
       </c>
       <c r="F51" s="24">
-        <v>-117.2191667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-116.915448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E52" s="24">
-        <v>32.871792999999997</v>
+        <v>33.1952778</v>
       </c>
       <c r="F52" s="24">
-        <v>-116.915448</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.12638889999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E53" s="24">
-        <v>33.1952778</v>
+        <v>33.048333300000003</v>
       </c>
       <c r="F53" s="24">
-        <v>-117.12638889999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.2263889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E54" s="24">
-        <v>33.048333300000003</v>
+        <v>33.354669000000001</v>
       </c>
       <c r="F54" s="24">
-        <v>-117.2263889</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.251279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E55" s="24">
-        <v>33.354669000000001</v>
+        <v>32.847104000000002</v>
       </c>
       <c r="F55" s="24">
-        <v>-117.251279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-116.85780099999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>160</v>
@@ -3305,15 +3284,15 @@
         <v>24</v>
       </c>
       <c r="E56" s="24">
-        <v>32.847104000000002</v>
+        <v>32.836359000000002</v>
       </c>
       <c r="F56" s="24">
-        <v>-116.85780099999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-116.899664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>160</v>
@@ -3322,121 +3301,104 @@
         <v>24</v>
       </c>
       <c r="E57" s="24">
-        <v>32.836359000000002</v>
+        <v>33.048055599999998</v>
       </c>
       <c r="F57" s="24">
-        <v>-116.899664</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-116.8608333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E58" s="24">
-        <v>33.048055599999998</v>
+        <v>33.021944400000002</v>
       </c>
       <c r="F58" s="24">
-        <v>-116.8608333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.0825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E59" s="24">
-        <v>33.021944400000002</v>
-      </c>
-      <c r="F59" s="24">
-        <v>-117.0825</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32.736511</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E60" s="24">
-        <v>32.736511</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33.147222200000002</v>
+      </c>
+      <c r="F60" s="24">
+        <v>-117.1961111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E61" s="24">
-        <v>33.147222200000002</v>
+        <v>33.350177000000002</v>
       </c>
       <c r="F61" s="24">
-        <v>-117.1961111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-117.523465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="E62" s="24">
-        <v>33.350177000000002</v>
+        <v>33.000059999999998</v>
       </c>
       <c r="F62" s="24">
-        <v>-117.523465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="24">
-        <v>33.000059999999998</v>
-      </c>
-      <c r="F63" s="24">
         <v>-116.758686</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L43" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:F63">
-    <sortCondition ref="A50:A63"/>
+  <autoFilter ref="A1:L42" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:F62">
+    <sortCondition ref="A49:A62"/>
   </sortState>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FC">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FC">
       <formula>NOT(ISERROR(SEARCH("FC",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3447,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,144 +3583,144 @@
         <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>125</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>31</v>
+      <c r="A19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="A20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="29"/>
+      <c r="A22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="10"/>
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
+      <c r="A25" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="29"/>
+      <c r="A26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="10"/>
+      <c r="A27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="29"/>
+      <c r="A29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="28"/>
     </row>
@@ -3767,118 +3729,117 @@
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="28"/>
+      <c r="A34" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="29"/>
+      <c r="A36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="28"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="28"/>
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" t="s">
-        <v>142</v>
+      <c r="A39" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>138</v>
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>147</v>
+      <c r="A45" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3886,7 +3847,10 @@
         <v>151</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,34 +3858,23 @@
         <v>151</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>154</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
-    <sortCondition ref="A2:A43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
+    <sortCondition ref="A2:A42"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38752,221 +38705,227 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{C1E7234A-ADAB-4998-ABF0-C5115B28DF0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{87D343E4-BB51-41AF-BC58-B8E3885FCAB8}">
       <formula1>"AM, JN, GM, JE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="35">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C21A44A-7AB7-46FC-8A0A-95B931D63935}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="36">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A50B287E-E901-46BD-B5A5-466EA5F836AB}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A70</xm:f>
+            <xm:f>Site_List!A24:A69</xm:f>
           </x14:formula1>
           <xm:sqref>A43</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C9A0D3C-5C35-4621-BA26-7DAE9B7AF0E2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16D1C3AC-44C3-4CD6-9DDC-C526831AF028}">
+          <x14:formula1>
+            <xm:f>Site_List!A11:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>A35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA097951-DF36-4547-91D5-1BC1853F1D73}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A60</xm:f>
+          </x14:formula1>
+          <xm:sqref>A34 A31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C6F9421-2621-44DE-A0DB-75BB6B0DDB55}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A24 A27:A28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A477F8A-F40D-41D4-B4AC-B1C7B69506C0}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A52</xm:f>
+          </x14:formula1>
+          <xm:sqref>A19 A22:A23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CBE672-87AC-44EF-AC99-C248609E7736}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AAA0668-622D-41CC-8882-9F63D85DB050}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A42</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C18A5B69-7C40-43DB-BDD5-F177FB5865A7}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DA29BBD-0800-4E62-B218-D309CD52BD26}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A10 A4:A5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEBDDEF7-C3A4-4EA5-992A-584755B2D17A}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A58</xm:f>
+          </x14:formula1>
+          <xm:sqref>A29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{643B2FBA-D052-424A-8801-8E166210645D}">
+          <x14:formula1>
+            <xm:f>Site_List!A10:A59</xm:f>
+          </x14:formula1>
+          <xm:sqref>A30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F3977A5-42B0-4780-985E-1E5CA329AD6C}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90900331-AEEA-4A74-97F5-D9632CAC8550}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A49</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{212FABBE-CED0-4D11-A11A-AE4D1EE68C7E}">
+          <x14:formula1>
+            <xm:f>Site_List!A10:A50</xm:f>
+          </x14:formula1>
+          <xm:sqref>A12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F48EFCE-2DB5-4A9C-AFCB-3BD82D5883FF}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A50</xm:f>
+          </x14:formula1>
+          <xm:sqref>A13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF61ED72-F027-410C-8F3A-8C12D9F2E7D3}">
+          <x14:formula1>
+            <xm:f>Site_List!A10:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D06798E-BE8B-4540-A7BB-B50D69F24176}">
+          <x14:formula1>
+            <xm:f>Site_List!A19:A67</xm:f>
+          </x14:formula1>
+          <xm:sqref>A40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECAB0005-29EE-42B2-8DE8-4B7462B4A92B}">
+          <x14:formula1>
+            <xm:f>Site_List!A19:A70</xm:f>
+          </x14:formula1>
+          <xm:sqref>A44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB92B4C0-4E14-407F-A0F5-A62397D1BC2F}">
+          <x14:formula1>
+            <xm:f>Site_List!A24:A71</xm:f>
+          </x14:formula1>
+          <xm:sqref>A45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC66D65C-7A29-4377-99A4-F4D5471947F5}">
+          <x14:formula1>
+            <xm:f>Site_List!A24:A68</xm:f>
+          </x14:formula1>
+          <xm:sqref>A42 A61:A1048549</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E12326F7-3054-4093-B56B-F0B373133450}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048542</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048560</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{016A496E-8A10-4E24-9DAB-AC844CE7F995}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048541</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048559</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E613E154-DC3C-4400-A0BC-2569DFE2F301}">
+          <x14:formula1>
+            <xm:f>Site_List!A19:A67</xm:f>
+          </x14:formula1>
+          <xm:sqref>A41 A46:A47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0D2F3B1-B76B-4941-AC4D-75DC7B1F1426}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048540</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048558</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A64804C1-E45E-4984-ACD5-22E8D3E0FFE0}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048539</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048557</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C38F95A1-1D73-4E10-8876-CCCE38591657}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048537</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048555:A1048556</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB54E6BC-4AF4-4BB9-9982-C5BB47A115D0}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048532</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1048550:A1048554</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C069F58-0A45-467A-9863-79C69D26436D}">
+          <x14:formula1>
+            <xm:f>Site_List!A31:A74</xm:f>
+          </x14:formula1>
+          <xm:sqref>A48:A60</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F0C1116-CF7E-4963-9B93-01018D2CB924}">
           <x14:formula1>
             <xm:f>Site_List!A11:A63</xm:f>
           </x14:formula1>
-          <xm:sqref>A35</xm:sqref>
+          <xm:sqref>A36:A37</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{204E6618-BD3E-4828-94E1-5939FAFCCBED}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70916389-E7FB-4DAD-85D7-8770450DB494}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A61</xm:f>
+            <xm:f>Site_List!A15:A65</xm:f>
           </x14:formula1>
-          <xm:sqref>A34 A31</xm:sqref>
+          <xm:sqref>A38:A39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4FD34F65-9A7E-4442-B096-87AD2789BD6E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14725DCD-E95D-4377-B5F7-4455986214BB}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A55</xm:f>
+            <xm:f>Site_List!A10:A61</xm:f>
           </x14:formula1>
-          <xm:sqref>A24 A27:A28</xm:sqref>
+          <xm:sqref>A32:A33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1B0915B-41F4-4180-8D56-2A6F6B4830B8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C135A59-4E8D-4F76-A95E-C5A9D86B4BE4}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A53</xm:f>
+            <xm:f>Site_List!A10:A55</xm:f>
           </x14:formula1>
-          <xm:sqref>A19 A22:A23</xm:sqref>
+          <xm:sqref>A25:A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C9CF852-0866-4E8C-AEB3-99480C7B91DF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAA65B54-EEE3-4E0C-A37E-9248F65F9C96}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A52</xm:f>
+            <xm:f>Site_List!A10:A53</xm:f>
           </x14:formula1>
-          <xm:sqref>A15</xm:sqref>
+          <xm:sqref>A20:A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17921B0D-87DA-4F40-9EF8-81AA973FC0E6}">
-          <x14:formula1>
-            <xm:f>Site_List!A2:A43</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7E948EE-7C67-4DF2-87A8-2D5457F9EC44}">
-          <x14:formula1>
-            <xm:f>Site_List!A2:A44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16C702E0-36BB-4B38-98DD-32AF89AC8F46}">
-          <x14:formula1>
-            <xm:f>Site_List!A2:A44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A10 A4:A5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E57EEBAD-B15A-4C12-AF06-9D7601105F47}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A59</xm:f>
-          </x14:formula1>
-          <xm:sqref>A29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64051C13-9859-48CB-97EF-2AE33D09BB91}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A60</xm:f>
-          </x14:formula1>
-          <xm:sqref>A30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5077D822-BFCA-49D1-86E7-FE5F8FFC4F20}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A52</xm:f>
-          </x14:formula1>
-          <xm:sqref>A16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DEF0A66-B24C-4D97-9984-F2937E3FF633}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{276C5020-517F-4A6A-9A71-70618DD8CDD5}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A51</xm:f>
-          </x14:formula1>
-          <xm:sqref>A12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8B40EE3-8D41-4CC1-81D2-CA142CA7FE97}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A51</xm:f>
-          </x14:formula1>
-          <xm:sqref>A13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09DA1F28-6120-42F3-B02B-76D768045EE2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF032327-98D4-4FD7-A45E-46DDDD5B2155}">
           <x14:formula1>
             <xm:f>Site_List!A10:A52</xm:f>
           </x14:formula1>
-          <xm:sqref>A14</xm:sqref>
+          <xm:sqref>A17:A18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{472D7074-CAE8-4389-B378-6FEDD897C0F0}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A68</xm:f>
-          </x14:formula1>
-          <xm:sqref>A40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35AA86B4-7B5B-4461-8810-92A3304E8A7C}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A71</xm:f>
-          </x14:formula1>
-          <xm:sqref>A44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{392B5A48-549D-41F8-977C-EE31114A923F}">
-          <x14:formula1>
-            <xm:f>Site_List!A24:A72</xm:f>
-          </x14:formula1>
-          <xm:sqref>A45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F5F1B2E-EF1C-4542-BA4C-8DE6A5CCCBDA}">
-          <x14:formula1>
-            <xm:f>Site_List!A24:A69</xm:f>
-          </x14:formula1>
-          <xm:sqref>A42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BB656A86-B8F9-4F3B-B0B8-C0BE6130226E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A6CDFD3-CC47-4154-A2A1-49B41AA7C06C}">
           <x14:formula1>
             <xm:f>Site_List!A1:A1048543</xm:f>
           </x14:formula1>
-          <xm:sqref>A1048560</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E7250E4-7950-4581-BA6D-28B12AED9D3A}">
-          <x14:formula1>
-            <xm:f>Site_List!A1:A1048542</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1048559</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF55561D-2C93-4A33-BBDB-1E62944F6687}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A68</xm:f>
-          </x14:formula1>
-          <xm:sqref>A41 A46:A47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2BB9314-8952-402A-A602-39440DD630A8}">
-          <x14:formula1>
-            <xm:f>Site_List!A1:A1048541</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1048558</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6ED928C1-1E2B-42B6-82E5-2A89768C3511}">
-          <x14:formula1>
-            <xm:f>Site_List!A1:A1048540</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1048557</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9AEE26B6-E528-409B-9683-8B4A6AB9E36A}">
-          <x14:formula1>
-            <xm:f>Site_List!A1:A1048538</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1048555:A1048556</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7C4A22C-2693-40A4-B11C-4745D086C110}">
-          <x14:formula1>
-            <xm:f>Site_List!A31:A75</xm:f>
-          </x14:formula1>
-          <xm:sqref>A48:A1048554</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3E2992F8-4111-42DC-A7FF-495BA460B0F7}">
-          <x14:formula1>
-            <xm:f>Site_List!A11:A64</xm:f>
-          </x14:formula1>
-          <xm:sqref>A36:A37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A05F6343-9508-43D0-9A2D-C3EC0382248B}">
-          <x14:formula1>
-            <xm:f>Site_List!A15:A66</xm:f>
-          </x14:formula1>
-          <xm:sqref>A38:A39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B83935D-9691-4361-9599-5CB3792008C0}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A62</xm:f>
-          </x14:formula1>
-          <xm:sqref>A32:A33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E8D3DD0-5CAC-4706-A2C9-9B8D08D319B9}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A56</xm:f>
-          </x14:formula1>
-          <xm:sqref>A25:A26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F21BF6B-C2EA-45E8-A7AF-CD2CAFD2D623}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A54</xm:f>
-          </x14:formula1>
-          <xm:sqref>A20:A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E018CF5-E6C1-4DDF-8DE4-18BA2290EDB9}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A53</xm:f>
-          </x14:formula1>
-          <xm:sqref>A17:A18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B255856A-A095-4FAF-84D7-7A09E63DBFF7}">
-          <x14:formula1>
-            <xm:f>Site_List!A1:A1048544</xm:f>
-          </x14:formula1>
           <xm:sqref>A1048561:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4ECCB41-4525-44B0-B3D2-59AD10CD151A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B2C10DE-0585-414B-B076-C26F90043C98}">
           <x14:formula1>
-            <xm:f>Site_List!A3:A46</xm:f>
+            <xm:f>Site_List!A3:A45</xm:f>
           </x14:formula1>
           <xm:sqref>A6:A9</xm:sqref>
         </x14:dataValidation>
@@ -39273,97 +39232,97 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5506F80-FB6A-470C-ADFF-CCD38423CB50}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A44</xm:f>
+            <xm:f>Site_List!A2:A43</xm:f>
           </x14:formula1>
           <xm:sqref>A9 A12:A13 A3:A4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D5D8A4C-7990-474A-8CD9-B6CFFEB02007}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A59</xm:f>
+            <xm:f>Site_List!A24:A58</xm:f>
           </x14:formula1>
           <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{951BF909-7B9A-4D80-9BB4-6827B1616D79}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A61</xm:f>
+            <xm:f>Site_List!A8:A60</xm:f>
           </x14:formula1>
           <xm:sqref>A20 A23:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CFA68AB-9027-44AA-892D-DE4AFA5F411C}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A70</xm:f>
+            <xm:f>Site_List!A24:A69</xm:f>
           </x14:formula1>
           <xm:sqref>A29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{469B1378-73FA-420A-934A-A4E995E05BCC}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A43</xm:f>
+            <xm:f>Site_List!A2:A42</xm:f>
           </x14:formula1>
           <xm:sqref>A2 A10:A11 A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{874A2821-F529-4212-9110-6B88994B22E1}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A72</xm:f>
+            <xm:f>Site_List!A24:A71</xm:f>
           </x14:formula1>
           <xm:sqref>A31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C6E81F9-582D-4488-BA4F-90F9C7EAEEF0}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A58</xm:f>
+            <xm:f>Site_List!A24:A57</xm:f>
           </x14:formula1>
           <xm:sqref>A17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{571FDA5C-140F-40B9-AC96-0FF96480308D}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A69</xm:f>
+            <xm:f>Site_List!A24:A68</xm:f>
           </x14:formula1>
-          <xm:sqref>A28</xm:sqref>
+          <xm:sqref>A28 A47:A1048532</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCC10EB7-5690-49DD-9F91-1514A1EEB830}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A62</xm:f>
+            <xm:f>Site_List!A10:A61</xm:f>
           </x14:formula1>
           <xm:sqref>A30 A21:A22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9BCCBA-E9AC-4BCC-8450-33ECF4AEF916}">
           <x14:formula1>
-            <xm:f>Site_List!A19:A57</xm:f>
+            <xm:f>Site_List!A19:A56</xm:f>
           </x14:formula1>
           <xm:sqref>A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E11AC72-45BD-4BE2-A3C0-52CC9730CF18}">
           <x14:formula1>
-            <xm:f>Site_List!A19:A68</xm:f>
+            <xm:f>Site_List!A19:A67</xm:f>
           </x14:formula1>
           <xm:sqref>A27 A32:A33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C06900A-E219-4B8C-8B41-9B5239FF51E2}">
           <x14:formula1>
-            <xm:f>Site_List!A31:A75</xm:f>
+            <xm:f>Site_List!A31:A74</xm:f>
           </x14:formula1>
-          <xm:sqref>A34:A1048532</xm:sqref>
+          <xm:sqref>A34:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BE0A669-118C-4D65-9B03-2E7DF719E365}">
           <x14:formula1>
-            <xm:f>Site_List!A15:A66</xm:f>
+            <xm:f>Site_List!A15:A65</xm:f>
           </x14:formula1>
           <xm:sqref>A25:A26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{090F10A3-96C2-439F-A040-1F56976782C2}">
           <x14:formula1>
-            <xm:f>Site_List!A15:A55</xm:f>
+            <xm:f>Site_List!A15:A54</xm:f>
           </x14:formula1>
           <xm:sqref>A14:A15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61375905-4EC5-4AE4-A135-F5B4940C7A7B}">
           <x14:formula1>
-            <xm:f>Site_List!A3:A46</xm:f>
+            <xm:f>Site_List!A3:A45</xm:f>
           </x14:formula1>
           <xm:sqref>A5:A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54FEA14D-50E9-4531-9894-0F9DB060D9BF}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048530</xm:f>
+            <xm:f>Site_List!A1:A1048529</xm:f>
           </x14:formula1>
           <xm:sqref>A1048533:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C78570E-EAA6-4462-9393-4F401E39E6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B13BA3-08DF-4A9F-9CB9-08EC0A1B7BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="9" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$41</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">FinalOffsets_backup!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="166">
   <si>
     <t>SiteName</t>
   </si>
@@ -550,6 +550,18 @@
   <si>
     <t>-116.9416600 </t>
   </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>MS4-OC-Horno-1</t>
+  </si>
+  <si>
+    <t>MS4-OC-Horno-2</t>
+  </si>
+  <si>
+    <t>MS4-OC-Horno-3</t>
+  </si>
 </sst>
 </file>
 
@@ -854,6 +866,9 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -862,9 +877,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -996,7 +1008,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{103DA54C-ECF5-47B6-B5D0-EEF9F5CAF651}" name="FinalOffsets_backup" displayName="FinalOffsets_backup" ref="A1:D46" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D46" xr:uid="{A8AC457F-8821-47AC-AAA3-225EC0F91D79}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8663088A-4D33-4947-AFAF-DC27B2996443}" uniqueName="1" name="Site" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8663088A-4D33-4947-AFAF-DC27B2996443}" uniqueName="1" name="Site" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7B6E26C8-2C6F-44DE-97DC-E08083625583}" uniqueName="2" name="CalculatedOffset_in" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{9DBE5914-4F4B-4643-B205-1C79639ABDED}" uniqueName="3" name="GlobalOffset_in" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{2E345F07-7D49-4951-AA5B-9009D5CD3D60}" uniqueName="4" name="FinalOffset_in" queryTableFieldId="4"/>
@@ -1326,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,8 +1627,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>59</v>
@@ -1624,20 +1636,20 @@
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>32.841149999999999</v>
-      </c>
-      <c r="F8" s="3">
-        <v>-116.91602</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23">
+        <v>32.839927000000003</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-116.916022</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="33">
-        <v>-2.1</v>
+      <c r="H8" s="36">
+        <v>0</v>
       </c>
       <c r="I8" s="34">
         <v>90</v>
@@ -1653,8 +1665,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>125</v>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>59</v>
@@ -1662,20 +1674,20 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23">
-        <v>32.839927000000003</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-116.916022</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
+      <c r="E9" s="3">
+        <v>32.849119999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-116.88415999999999</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="33">
+        <v>-4.2</v>
       </c>
       <c r="I9" s="34">
         <v>90</v>
@@ -1692,7 +1704,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>59</v>
@@ -1701,16 +1713,16 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
-        <v>32.849119999999999</v>
+        <v>32.828710000000001</v>
       </c>
       <c r="F10" s="3">
-        <v>-116.88415999999999</v>
+        <v>-116.89487</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="33">
         <v>-4.2</v>
@@ -1730,7 +1742,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>59</v>
@@ -1745,13 +1757,13 @@
         <v>32.828710000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>-116.89487</v>
+        <v>-116.89489</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="33">
-        <v>-4.2</v>
+        <v>-1.64</v>
       </c>
       <c r="I11" s="34">
         <v>90</v>
@@ -1767,8 +1779,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
+      <c r="A12" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>59</v>
@@ -1776,20 +1788,20 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>32.828710000000001</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-116.89489</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="33">
-        <v>-1.64</v>
+      <c r="D12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="24">
+        <v>33.005504999999999</v>
+      </c>
+      <c r="F12" s="24">
+        <v>-116.782614</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
       </c>
       <c r="I12" s="34">
         <v>90</v>
@@ -1801,12 +1813,12 @@
         <v>2.5</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>59</v>
@@ -1817,14 +1829,14 @@
       <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="24">
-        <v>33.005504999999999</v>
-      </c>
-      <c r="F13" s="24">
-        <v>-116.782614</v>
+      <c r="E13" s="23">
+        <v>33.002426999999997</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-116.803258</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H13" s="36">
         <v>0</v>
@@ -1843,8 +1855,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>128</v>
+      <c r="A14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>59</v>
@@ -1852,20 +1864,20 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="23">
-        <v>33.002426999999997</v>
-      </c>
-      <c r="F14" s="23">
-        <v>-116.803258</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>32.832599999999999</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-116.9055</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="33">
+        <v>-3.25</v>
       </c>
       <c r="I14" s="34">
         <v>90</v>
@@ -1877,33 +1889,33 @@
         <v>2.5</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>41</v>
+      <c r="A15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E15" s="3">
-        <v>32.832599999999999</v>
+        <v>33.233150999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>-116.9055</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
+        <v>-117.14391000000001</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H15" s="33">
-        <v>-3.25</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="I15" s="34">
         <v>90</v>
@@ -1915,33 +1927,33 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
+      <c r="A16" t="s">
+        <v>139</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3">
-        <v>33.233150999999999</v>
-      </c>
-      <c r="F16" s="3">
-        <v>-117.14391000000001</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="33">
-        <v>-4.5599999999999996</v>
+      <c r="E16" s="24">
+        <v>33.25112</v>
+      </c>
+      <c r="F16" s="24">
+        <v>-117.14737</v>
+      </c>
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-0.57999999999999996</v>
       </c>
       <c r="I16" s="34">
         <v>90</v>
@@ -1957,8 +1969,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>139</v>
+      <c r="A17" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>59</v>
@@ -1966,20 +1978,20 @@
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="24">
-        <v>33.25112</v>
-      </c>
-      <c r="F17" s="24">
-        <v>-117.14737</v>
-      </c>
-      <c r="G17" t="s">
-        <v>139</v>
+      <c r="D17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="23">
+        <v>33.380755999999998</v>
+      </c>
+      <c r="F17" s="23">
+        <v>-117.234165</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="H17" s="36">
-        <v>-0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I17" s="34">
         <v>90</v>
@@ -1991,12 +2003,12 @@
         <v>2.5</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>129</v>
+      <c r="A18" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>59</v>
@@ -2004,20 +2016,20 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="23">
-        <v>33.380755999999998</v>
-      </c>
-      <c r="F18" s="23">
-        <v>-117.234165</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>33.345700000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-117.2405</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="33">
+        <v>-4.95</v>
       </c>
       <c r="I18" s="34">
         <v>90</v>
@@ -2033,8 +2045,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>43</v>
+      <c r="A19" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>59</v>
@@ -2042,20 +2054,20 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3">
-        <v>33.345700000000001</v>
-      </c>
-      <c r="F19" s="3">
-        <v>-117.2405</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="33">
-        <v>-4.95</v>
+      <c r="E19" s="23">
+        <v>33.351405999999997</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-117.23723</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
       </c>
       <c r="I19" s="34">
         <v>90</v>
@@ -2072,7 +2084,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>59</v>
@@ -2084,13 +2096,13 @@
         <v>7</v>
       </c>
       <c r="E20" s="23">
-        <v>33.351405999999997</v>
+        <v>33.303246610000002</v>
       </c>
       <c r="F20" s="23">
-        <v>-117.23723</v>
+        <v>-117.2430631</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="36">
         <v>0</v>
@@ -2105,32 +2117,32 @@
         <v>2.5</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="23">
-        <v>33.303246610000002</v>
+        <v>32.768979000000002</v>
       </c>
       <c r="F21" s="23">
-        <v>-117.2430631</v>
+        <v>-116.927633</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="36">
+        <v>132</v>
+      </c>
+      <c r="H21" s="37">
         <v>0</v>
       </c>
       <c r="I21" s="34">
@@ -2143,12 +2155,15 @@
         <v>2.5</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>59</v>
@@ -2160,13 +2175,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="23">
-        <v>32.768979000000002</v>
+        <v>32.767411000000003</v>
       </c>
       <c r="F22" s="23">
-        <v>-116.927633</v>
+        <v>-116.924937</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="37">
         <v>0</v>
@@ -2188,8 +2203,8 @@
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>133</v>
+      <c r="A23" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>59</v>
@@ -2197,20 +2212,20 @@
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="23">
-        <v>32.767411000000003</v>
-      </c>
-      <c r="F23" s="23">
-        <v>-116.924937</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="37">
-        <v>0</v>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32.726632479999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-116.9834604</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="33">
+        <v>-4.22</v>
       </c>
       <c r="I23" s="34">
         <v>90</v>
@@ -2224,13 +2239,10 @@
       <c r="L23" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
+      <c r="A24" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>59</v>
@@ -2238,20 +2250,20 @@
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3">
-        <v>32.726632479999999</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-116.9834604</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>38</v>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="24">
+        <v>32.747861</v>
+      </c>
+      <c r="F24" s="24">
+        <v>-116.98747</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H24" s="33">
-        <v>-4.22</v>
+        <v>-4.2</v>
       </c>
       <c r="I24" s="34">
         <v>90</v>
@@ -2267,8 +2279,8 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>39</v>
+      <c r="A25" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>59</v>
@@ -2276,20 +2288,20 @@
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="24">
-        <v>32.747861</v>
-      </c>
-      <c r="F25" s="24">
-        <v>-116.98747</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="33">
-        <v>-4.2</v>
+      <c r="D25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="25">
+        <v>32.713181059999997</v>
+      </c>
+      <c r="F25" s="26">
+        <v>-117.0060982</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="38">
+        <v>-5.24</v>
       </c>
       <c r="I25" s="34">
         <v>90</v>
@@ -2306,7 +2318,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>59</v>
@@ -2315,19 +2327,19 @@
         <v>37</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="25">
-        <v>32.713181059999997</v>
+        <v>32.7348</v>
       </c>
       <c r="F26" s="26">
-        <v>-117.0060982</v>
+        <v>-116.971</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H26" s="38">
-        <v>-5.24</v>
+        <v>0</v>
       </c>
       <c r="I26" s="34">
         <v>90</v>
@@ -2344,7 +2356,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>59</v>
@@ -2356,13 +2368,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="25">
-        <v>32.7348</v>
+        <v>32.691803999999998</v>
       </c>
       <c r="F27" s="26">
-        <v>-116.971</v>
+        <v>-117.01728</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H27" s="38">
         <v>0</v>
@@ -2382,7 +2394,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
@@ -2394,13 +2406,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="25">
-        <v>32.691803999999998</v>
+        <v>32.766598000000002</v>
       </c>
       <c r="F28" s="26">
-        <v>-117.01728</v>
+        <v>-116.91793800000001</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H28" s="38">
         <v>0</v>
@@ -2420,7 +2432,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>59</v>
@@ -2432,13 +2444,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="25">
-        <v>32.766598000000002</v>
+        <v>32.743315000000003</v>
       </c>
       <c r="F29" s="26">
-        <v>-116.91793800000001</v>
+        <v>-116.934309</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H29" s="38">
         <v>0</v>
@@ -2457,46 +2469,46 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="25">
-        <v>32.743315000000003</v>
-      </c>
-      <c r="F30" s="26">
-        <v>-116.934309</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="38">
-        <v>0</v>
+      <c r="E30" s="24">
+        <v>33.01896</v>
+      </c>
+      <c r="F30" s="24">
+        <v>-117.1063</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="33">
+        <v>-3.7401574803149606</v>
       </c>
       <c r="I30" s="34">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J30" s="35">
-        <v>1122</v>
+        <v>464.5</v>
       </c>
       <c r="K30" s="33">
         <v>2.5</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>60</v>
@@ -2508,22 +2520,22 @@
         <v>7</v>
       </c>
       <c r="E31" s="24">
-        <v>33.01896</v>
+        <v>33.017580000000002</v>
       </c>
       <c r="F31" s="24">
-        <v>-117.1063</v>
+        <v>-117.10279</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="33">
-        <v>-3.7401574803149606</v>
+        <v>-1.1811023622047245</v>
       </c>
       <c r="I31" s="34">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J31" s="35">
-        <v>464.5</v>
+        <v>647.6</v>
       </c>
       <c r="K31" s="33">
         <v>2.5</v>
@@ -2534,7 +2546,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>60</v>
@@ -2546,22 +2558,22 @@
         <v>7</v>
       </c>
       <c r="E32" s="24">
-        <v>33.017580000000002</v>
+        <v>33.015270000000001</v>
       </c>
       <c r="F32" s="24">
-        <v>-117.10279</v>
+        <v>-117.10756000000001</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="33">
-        <v>-1.1811023622047245</v>
+        <v>-1.2598425196850394</v>
       </c>
       <c r="I32" s="34">
-        <v>60</v>
+        <v>22.5</v>
       </c>
       <c r="J32" s="35">
-        <v>647.6</v>
+        <v>223.1</v>
       </c>
       <c r="K32" s="33">
         <v>2.5</v>
@@ -2572,7 +2584,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>60</v>
@@ -2584,16 +2596,16 @@
         <v>7</v>
       </c>
       <c r="E33" s="24">
-        <v>33.015270000000001</v>
+        <v>33.019030000000001</v>
       </c>
       <c r="F33" s="24">
-        <v>-117.10756000000001</v>
+        <v>-117.10876</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33" s="33">
-        <v>-1.2598425196850394</v>
+        <v>-3.3858267716535435</v>
       </c>
       <c r="I33" s="34">
         <v>22.5</v>
@@ -2610,7 +2622,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>60</v>
@@ -2622,22 +2634,22 @@
         <v>7</v>
       </c>
       <c r="E34" s="24">
-        <v>33.019030000000001</v>
+        <v>33.021160000000002</v>
       </c>
       <c r="F34" s="24">
-        <v>-117.10876</v>
+        <v>-117.10648999999999</v>
       </c>
       <c r="G34" t="s">
         <v>48</v>
       </c>
       <c r="H34" s="33">
-        <v>-3.3858267716535435</v>
+        <v>-1.6141732283464567</v>
       </c>
       <c r="I34" s="34">
-        <v>22.5</v>
+        <v>90</v>
       </c>
       <c r="J34" s="35">
-        <v>223.1</v>
+        <v>1122</v>
       </c>
       <c r="K34" s="33">
         <v>2.5</v>
@@ -2648,7 +2660,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>60</v>
@@ -2660,16 +2672,16 @@
         <v>7</v>
       </c>
       <c r="E35" s="24">
-        <v>33.021160000000002</v>
+        <v>33.003030000000003</v>
       </c>
       <c r="F35" s="24">
-        <v>-117.10648999999999</v>
+        <v>-117.11605</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H35" s="33">
-        <v>-1.6141732283464567</v>
+        <v>-4.0944881889763778</v>
       </c>
       <c r="I35" s="34">
         <v>90</v>
@@ -2686,7 +2698,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>60</v>
@@ -2698,16 +2710,16 @@
         <v>7</v>
       </c>
       <c r="E36" s="24">
-        <v>33.003030000000003</v>
+        <v>33.047150000000002</v>
       </c>
       <c r="F36" s="24">
-        <v>-117.11605</v>
+        <v>-116.8659</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" s="33">
-        <v>-4.0944881889763778</v>
+        <v>-8.1102362204724407</v>
       </c>
       <c r="I36" s="34">
         <v>90</v>
@@ -2719,12 +2731,12 @@
         <v>2.5</v>
       </c>
       <c r="L36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>60</v>
@@ -2736,16 +2748,16 @@
         <v>7</v>
       </c>
       <c r="E37" s="24">
-        <v>33.047150000000002</v>
+        <v>33.043460000000003</v>
       </c>
       <c r="F37" s="24">
-        <v>-116.8659</v>
+        <v>-116.87215999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" s="33">
-        <v>-8.1102362204724407</v>
+        <v>-5</v>
       </c>
       <c r="I37" s="34">
         <v>90</v>
@@ -2762,28 +2774,28 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="24">
-        <v>33.043460000000003</v>
+        <v>33.374760000000002</v>
       </c>
       <c r="F38" s="24">
-        <v>-116.87215999999999</v>
+        <v>-117.25261</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" s="33">
-        <v>-5</v>
+        <v>-3.6614173228346458</v>
       </c>
       <c r="I38" s="34">
         <v>90</v>
@@ -2795,12 +2807,12 @@
         <v>2.5</v>
       </c>
       <c r="L38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>60</v>
@@ -2812,13 +2824,13 @@
         <v>7</v>
       </c>
       <c r="E39" s="24">
-        <v>33.374760000000002</v>
+        <v>33.374769999999998</v>
       </c>
       <c r="F39" s="24">
-        <v>-117.25261</v>
+        <v>-117.25259</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H39" s="33">
         <v>-3.6614173228346458</v>
@@ -2838,7 +2850,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>60</v>
@@ -2850,22 +2862,22 @@
         <v>7</v>
       </c>
       <c r="E40" s="24">
-        <v>33.374769999999998</v>
+        <v>33.373779999999996</v>
       </c>
       <c r="F40" s="24">
-        <v>-117.25259</v>
+        <v>-117.25288999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" s="33">
-        <v>-3.6614173228346458</v>
+        <v>-2.5196850393700787</v>
       </c>
       <c r="I40" s="34">
-        <v>90</v>
+        <v>22.5</v>
       </c>
       <c r="J40" s="35">
-        <v>1122</v>
+        <v>223.1</v>
       </c>
       <c r="K40" s="33">
         <v>2.5</v>
@@ -2876,7 +2888,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>60</v>
@@ -2888,22 +2900,22 @@
         <v>7</v>
       </c>
       <c r="E41" s="24">
-        <v>33.373779999999996</v>
+        <v>33.376750000000001</v>
       </c>
       <c r="F41" s="24">
-        <v>-117.25288999999999</v>
+        <v>-117.25579</v>
       </c>
       <c r="G41" t="s">
         <v>55</v>
       </c>
       <c r="H41" s="33">
-        <v>-2.5196850393700787</v>
+        <v>-2.2834645669291338</v>
       </c>
       <c r="I41" s="34">
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="J41" s="35">
-        <v>223.1</v>
+        <v>464.5</v>
       </c>
       <c r="K41" s="33">
         <v>2.5</v>
@@ -2914,45 +2926,45 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
       </c>
       <c r="E42" s="24">
-        <v>33.376750000000001</v>
+        <v>33.482542000000002</v>
       </c>
       <c r="F42" s="24">
-        <v>-117.25579</v>
+        <v>-117.72039700000001</v>
       </c>
       <c r="G42" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="H42" s="33">
-        <v>-2.2834645669291338</v>
+        <v>-6.56</v>
       </c>
       <c r="I42" s="34">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="J42" s="35">
-        <v>464.5</v>
+        <v>1122</v>
       </c>
       <c r="K42" s="33">
         <v>2.5</v>
       </c>
       <c r="L42" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>59</v>
@@ -2964,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="E43" s="24">
-        <v>33.482542000000002</v>
+        <v>33.481084299999999</v>
       </c>
       <c r="F43" s="24">
-        <v>-117.72039700000001</v>
+        <v>-117.70553459999999</v>
       </c>
       <c r="G43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H43" s="33">
-        <v>-6.56</v>
+        <v>-2.48</v>
       </c>
       <c r="I43" s="34">
         <v>90</v>
@@ -2988,47 +3000,41 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>147</v>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="24">
-        <v>33.481084299999999</v>
-      </c>
-      <c r="F44" s="24">
-        <v>-117.70553459999999</v>
-      </c>
-      <c r="G44" t="s">
-        <v>147</v>
-      </c>
-      <c r="H44" s="33">
-        <v>-2.48</v>
-      </c>
-      <c r="I44" s="34">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="E44" s="40">
+        <v>32.820459999999997</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>151</v>
       </c>
       <c r="J44" s="35">
-        <v>1122</v>
+        <v>893.1</v>
       </c>
       <c r="K44" s="33">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>60</v>
@@ -3040,27 +3046,21 @@
         <v>9</v>
       </c>
       <c r="E45" s="40">
-        <v>32.820459999999997</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>150</v>
+        <v>32.821399999999997</v>
+      </c>
+      <c r="F45" s="40">
+        <v>-116.96</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J45" s="35">
-        <v>893.1</v>
-      </c>
-      <c r="K45" s="33">
-        <v>2.04</v>
-      </c>
       <c r="L45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>60</v>
@@ -3072,193 +3072,184 @@
         <v>9</v>
       </c>
       <c r="E46" s="40">
-        <v>32.821399999999997</v>
+        <v>32.818899999999999</v>
       </c>
       <c r="F46" s="40">
-        <v>-116.96</v>
+        <v>-116.959</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>151</v>
       </c>
+      <c r="J46" s="35">
+        <v>893.1</v>
+      </c>
+      <c r="K46" s="33">
+        <v>2.04</v>
+      </c>
       <c r="L46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="40">
-        <v>32.818899999999999</v>
-      </c>
-      <c r="F47" s="40">
-        <v>-116.959</v>
+        <v>148</v>
+      </c>
+      <c r="E47">
+        <v>33.508595999999997</v>
+      </c>
+      <c r="F47">
+        <v>-117.707369</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0</v>
+      </c>
+      <c r="I47" s="34">
+        <v>90</v>
       </c>
       <c r="J47" s="35">
-        <v>893.1</v>
+        <v>1122</v>
       </c>
       <c r="K47" s="33">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="L47" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>154</v>
+      <c r="A48" t="s">
+        <v>156</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48">
-        <v>33.508595999999997</v>
-      </c>
-      <c r="F48">
-        <v>-117.707369</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" s="33">
-        <v>0</v>
-      </c>
-      <c r="I48" s="34">
-        <v>90</v>
-      </c>
-      <c r="J48" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K48" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="E48" s="24">
+        <v>32.656111099999997</v>
+      </c>
+      <c r="F48" s="24">
+        <v>-117.0341667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E49" s="24">
-        <v>32.656111099999997</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F49" s="24">
-        <v>-117.0341667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.2191667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E50" s="24">
-        <v>33.299999999999997</v>
+        <v>32.871792999999997</v>
       </c>
       <c r="F50" s="24">
-        <v>-117.2191667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-116.915448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E51" s="24">
-        <v>32.871792999999997</v>
+        <v>33.1952778</v>
       </c>
       <c r="F51" s="24">
-        <v>-116.915448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.12638889999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E52" s="24">
-        <v>33.1952778</v>
+        <v>33.048333300000003</v>
       </c>
       <c r="F52" s="24">
-        <v>-117.12638889999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.2263889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E53" s="24">
-        <v>33.048333300000003</v>
+        <v>33.354669000000001</v>
       </c>
       <c r="F53" s="24">
-        <v>-117.2263889</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.251279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E54" s="24">
-        <v>33.354669000000001</v>
+        <v>32.847104000000002</v>
       </c>
       <c r="F54" s="24">
-        <v>-117.251279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-116.85780099999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>160</v>
@@ -3267,15 +3258,15 @@
         <v>24</v>
       </c>
       <c r="E55" s="24">
-        <v>32.847104000000002</v>
+        <v>32.836359000000002</v>
       </c>
       <c r="F55" s="24">
-        <v>-116.85780099999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-116.899664</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>160</v>
@@ -3284,122 +3275,219 @@
         <v>24</v>
       </c>
       <c r="E56" s="24">
-        <v>32.836359000000002</v>
+        <v>33.048055599999998</v>
       </c>
       <c r="F56" s="24">
-        <v>-116.899664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-116.8608333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E57" s="24">
-        <v>33.048055599999998</v>
+        <v>33.021944400000002</v>
       </c>
       <c r="F57" s="24">
-        <v>-116.8608333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.0825</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E58" s="24">
-        <v>33.021944400000002</v>
-      </c>
-      <c r="F58" s="24">
-        <v>-117.0825</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.736511</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E59" s="24">
-        <v>32.736511</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.147222200000002</v>
+      </c>
+      <c r="F59" s="24">
+        <v>-117.1961111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="E60" s="24">
-        <v>33.147222200000002</v>
+        <v>33.350177000000002</v>
       </c>
       <c r="F60" s="24">
-        <v>-117.1961111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-117.523465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="E61" s="24">
-        <v>33.350177000000002</v>
+        <v>33.000059999999998</v>
       </c>
       <c r="F61" s="24">
-        <v>-117.523465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-116.758686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>162</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="E62" s="24">
-        <v>33.000059999999998</v>
-      </c>
-      <c r="F62" s="24">
-        <v>-116.758686</v>
+        <v>33.532233900000001</v>
+      </c>
+      <c r="F62">
+        <v>-117.6466183</v>
+      </c>
+      <c r="G62" t="s">
+        <v>163</v>
+      </c>
+      <c r="H62" s="33">
+        <v>-3.23</v>
+      </c>
+      <c r="I62" s="35">
+        <v>90</v>
+      </c>
+      <c r="J62" s="33">
+        <v>1122</v>
+      </c>
+      <c r="K62">
+        <v>2.5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="24">
+        <v>33.534731000000001</v>
+      </c>
+      <c r="F63">
+        <v>-117.64620600000001</v>
+      </c>
+      <c r="G63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H63" s="33">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I63" s="35">
+        <v>90</v>
+      </c>
+      <c r="J63" s="33">
+        <v>1122</v>
+      </c>
+      <c r="K63">
+        <v>2.5</v>
+      </c>
+      <c r="L63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="24">
+        <v>33.539239700000003</v>
+      </c>
+      <c r="F64">
+        <v>-117.6405702</v>
+      </c>
+      <c r="G64" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="33">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I64" s="35">
+        <v>90</v>
+      </c>
+      <c r="J64" s="33">
+        <v>1122</v>
+      </c>
+      <c r="K64">
+        <v>2.5</v>
+      </c>
+      <c r="L64" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L42" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:F62">
-    <sortCondition ref="A49:A62"/>
+  <autoFilter ref="A1:L41" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:F61">
+    <sortCondition ref="A48:A61"/>
   </sortState>
-  <conditionalFormatting sqref="E14:F14">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FC">
-      <formula>NOT(ISERROR(SEARCH("FC",E14)))</formula>
+  <conditionalFormatting sqref="E13:F13">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FC">
+      <formula>NOT(ISERROR(SEARCH("FC",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,9 +3497,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -3580,138 +3668,136 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>125</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>31</v>
+      <c r="A18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10"/>
+      <c r="A19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="29"/>
+      <c r="A21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="10"/>
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
-        <v>140</v>
+      <c r="A24" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="29"/>
+      <c r="A25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="10"/>
+      <c r="A26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="29"/>
+      <c r="A28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="28"/>
     </row>
@@ -3720,118 +3806,117 @@
         <v>55</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="28"/>
+      <c r="A33" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="29"/>
+      <c r="A35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="28"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="28"/>
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" t="s">
-        <v>142</v>
+      <c r="A38" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>138</v>
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>147</v>
+      <c r="A44" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,7 +3924,10 @@
         <v>151</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,34 +3935,23 @@
         <v>151</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>154</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C42">
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37868,9 +37945,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{815A1C5E-19A1-402F-8612-4224D7150245}">
           <x14:formula1>
-            <xm:f>Site_List!$A$2:$A$25</xm:f>
+            <xm:f>Site_List!$A$2:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>A14 A182:A1048576 A23:A156</xm:sqref>
+          <xm:sqref>A14 A23:A156 A182:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -38712,220 +38789,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="36">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="32">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A50B287E-E901-46BD-B5A5-466EA5F836AB}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A69</xm:f>
+            <xm:f>Site_List!A23:A68</xm:f>
           </x14:formula1>
           <xm:sqref>A43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16D1C3AC-44C3-4CD6-9DDC-C526831AF028}">
           <x14:formula1>
-            <xm:f>Site_List!A11:A62</xm:f>
+            <xm:f>Site_List!A10:A61</xm:f>
           </x14:formula1>
           <xm:sqref>A35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA097951-DF36-4547-91D5-1BC1853F1D73}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A60</xm:f>
+            <xm:f>Site_List!A10:A62</xm:f>
           </x14:formula1>
-          <xm:sqref>A34 A31</xm:sqref>
+          <xm:sqref>A34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C6F9421-2621-44DE-A0DB-75BB6B0DDB55}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A54</xm:f>
+            <xm:f>Site_List!A10:A56</xm:f>
           </x14:formula1>
-          <xm:sqref>A24 A27:A28</xm:sqref>
+          <xm:sqref>A27:A28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A477F8A-F40D-41D4-B4AC-B1C7B69506C0}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A52</xm:f>
+            <xm:f>Site_List!A10:A54</xm:f>
           </x14:formula1>
-          <xm:sqref>A19 A22:A23</xm:sqref>
+          <xm:sqref>A22:A23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{643B2FBA-D052-424A-8801-8E166210645D}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A57</xm:f>
+          </x14:formula1>
+          <xm:sqref>A29:A30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{212FABBE-CED0-4D11-A11A-AE4D1EE68C7E}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A48</xm:f>
+          </x14:formula1>
+          <xm:sqref>A11:A12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF61ED72-F027-410C-8F3A-8C12D9F2E7D3}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A49</xm:f>
+          </x14:formula1>
+          <xm:sqref>A13:A14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D06798E-BE8B-4540-A7BB-B50D69F24176}">
+          <x14:formula1>
+            <xm:f>Site_List!A18:A66</xm:f>
+          </x14:formula1>
+          <xm:sqref>A40</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECAB0005-29EE-42B2-8DE8-4B7462B4A92B}">
+          <x14:formula1>
+            <xm:f>Site_List!A18:A69</xm:f>
+          </x14:formula1>
+          <xm:sqref>A44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB92B4C0-4E14-407F-A0F5-A62397D1BC2F}">
+          <x14:formula1>
+            <xm:f>Site_List!A23:A70</xm:f>
+          </x14:formula1>
+          <xm:sqref>A45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC66D65C-7A29-4377-99A4-F4D5471947F5}">
+          <x14:formula1>
+            <xm:f>Site_List!A23:A67</xm:f>
+          </x14:formula1>
+          <xm:sqref>A42 A61:A1048549</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E613E154-DC3C-4400-A0BC-2569DFE2F301}">
+          <x14:formula1>
+            <xm:f>Site_List!A18:A66</xm:f>
+          </x14:formula1>
+          <xm:sqref>A41 A46:A47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C069F58-0A45-467A-9863-79C69D26436D}">
+          <x14:formula1>
+            <xm:f>Site_List!A30:A73</xm:f>
+          </x14:formula1>
+          <xm:sqref>A48:A60</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F0C1116-CF7E-4963-9B93-01018D2CB924}">
+          <x14:formula1>
+            <xm:f>Site_List!A10:A62</xm:f>
+          </x14:formula1>
+          <xm:sqref>A36:A37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70916389-E7FB-4DAD-85D7-8770450DB494}">
+          <x14:formula1>
+            <xm:f>Site_List!A14:A64</xm:f>
+          </x14:formula1>
+          <xm:sqref>A38:A39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14725DCD-E95D-4377-B5F7-4455986214BB}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A59</xm:f>
+          </x14:formula1>
+          <xm:sqref>A31:A33</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C135A59-4E8D-4F76-A95E-C5A9D86B4BE4}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A53</xm:f>
+          </x14:formula1>
+          <xm:sqref>A24:A26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAA65B54-EEE3-4E0C-A37E-9248F65F9C96}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A19:A21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF032327-98D4-4FD7-A45E-46DDDD5B2155}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A50</xm:f>
+          </x14:formula1>
+          <xm:sqref>A16:A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CBE672-87AC-44EF-AC99-C248609E7736}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A51</xm:f>
+            <xm:f>Site_List!A8:A50</xm:f>
           </x14:formula1>
           <xm:sqref>A15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AAA0668-622D-41CC-8882-9F63D85DB050}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A42</xm:f>
+            <xm:f>Site_List!A2:A41</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C18A5B69-7C40-43DB-BDD5-F177FB5865A7}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A43</xm:f>
+            <xm:f>Site_List!A2:A42</xm:f>
           </x14:formula1>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DA29BBD-0800-4E62-B218-D309CD52BD26}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A43</xm:f>
+            <xm:f>Site_List!A2:A42</xm:f>
           </x14:formula1>
           <xm:sqref>A10 A4:A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEBDDEF7-C3A4-4EA5-992A-584755B2D17A}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A58</xm:f>
-          </x14:formula1>
-          <xm:sqref>A29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{643B2FBA-D052-424A-8801-8E166210645D}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A59</xm:f>
-          </x14:formula1>
-          <xm:sqref>A30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4F3977A5-42B0-4780-985E-1E5CA329AD6C}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A51</xm:f>
-          </x14:formula1>
-          <xm:sqref>A16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{90900331-AEEA-4A74-97F5-D9632CAC8550}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A49</xm:f>
-          </x14:formula1>
-          <xm:sqref>A11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{212FABBE-CED0-4D11-A11A-AE4D1EE68C7E}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F48EFCE-2DB5-4A9C-AFCB-3BD82D5883FF}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF61ED72-F027-410C-8F3A-8C12D9F2E7D3}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A51</xm:f>
-          </x14:formula1>
-          <xm:sqref>A14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D06798E-BE8B-4540-A7BB-B50D69F24176}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A67</xm:f>
-          </x14:formula1>
-          <xm:sqref>A40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECAB0005-29EE-42B2-8DE8-4B7462B4A92B}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A70</xm:f>
-          </x14:formula1>
-          <xm:sqref>A44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB92B4C0-4E14-407F-A0F5-A62397D1BC2F}">
-          <x14:formula1>
-            <xm:f>Site_List!A24:A71</xm:f>
-          </x14:formula1>
-          <xm:sqref>A45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC66D65C-7A29-4377-99A4-F4D5471947F5}">
-          <x14:formula1>
-            <xm:f>Site_List!A24:A68</xm:f>
-          </x14:formula1>
-          <xm:sqref>A42 A61:A1048549</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E12326F7-3054-4093-B56B-F0B373133450}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048542</xm:f>
+            <xm:f>Site_List!A1:A1048541</xm:f>
           </x14:formula1>
           <xm:sqref>A1048560</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{016A496E-8A10-4E24-9DAB-AC844CE7F995}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048541</xm:f>
+            <xm:f>Site_List!A1:A1048540</xm:f>
           </x14:formula1>
           <xm:sqref>A1048559</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E613E154-DC3C-4400-A0BC-2569DFE2F301}">
-          <x14:formula1>
-            <xm:f>Site_List!A19:A67</xm:f>
-          </x14:formula1>
-          <xm:sqref>A41 A46:A47</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0D2F3B1-B76B-4941-AC4D-75DC7B1F1426}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048540</xm:f>
+            <xm:f>Site_List!A1:A1048539</xm:f>
           </x14:formula1>
           <xm:sqref>A1048558</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A64804C1-E45E-4984-ACD5-22E8D3E0FFE0}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048539</xm:f>
+            <xm:f>Site_List!A1:A1048538</xm:f>
           </x14:formula1>
           <xm:sqref>A1048557</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C38F95A1-1D73-4E10-8876-CCCE38591657}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048537</xm:f>
+            <xm:f>Site_List!A1:A1048536</xm:f>
           </x14:formula1>
           <xm:sqref>A1048555:A1048556</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB54E6BC-4AF4-4BB9-9982-C5BB47A115D0}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048532</xm:f>
+            <xm:f>Site_List!A1:A1048531</xm:f>
           </x14:formula1>
           <xm:sqref>A1048550:A1048554</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C069F58-0A45-467A-9863-79C69D26436D}">
-          <x14:formula1>
-            <xm:f>Site_List!A31:A74</xm:f>
-          </x14:formula1>
-          <xm:sqref>A48:A60</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F0C1116-CF7E-4963-9B93-01018D2CB924}">
-          <x14:formula1>
-            <xm:f>Site_List!A11:A63</xm:f>
-          </x14:formula1>
-          <xm:sqref>A36:A37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70916389-E7FB-4DAD-85D7-8770450DB494}">
-          <x14:formula1>
-            <xm:f>Site_List!A15:A65</xm:f>
-          </x14:formula1>
-          <xm:sqref>A38:A39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14725DCD-E95D-4377-B5F7-4455986214BB}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A61</xm:f>
-          </x14:formula1>
-          <xm:sqref>A32:A33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C135A59-4E8D-4F76-A95E-C5A9D86B4BE4}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A55</xm:f>
-          </x14:formula1>
-          <xm:sqref>A25:A26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAA65B54-EEE3-4E0C-A37E-9248F65F9C96}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A53</xm:f>
-          </x14:formula1>
-          <xm:sqref>A20:A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF032327-98D4-4FD7-A45E-46DDDD5B2155}">
-          <x14:formula1>
-            <xm:f>Site_List!A10:A52</xm:f>
-          </x14:formula1>
-          <xm:sqref>A17:A18</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A6CDFD3-CC47-4154-A2A1-49B41AA7C06C}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048543</xm:f>
+            <xm:f>Site_List!A1:A1048542</xm:f>
           </x14:formula1>
           <xm:sqref>A1048561:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B2C10DE-0585-414B-B076-C26F90043C98}">
           <x14:formula1>
-            <xm:f>Site_List!A3:A45</xm:f>
+            <xm:f>Site_List!A3:A44</xm:f>
           </x14:formula1>
           <xm:sqref>A6:A9</xm:sqref>
         </x14:dataValidation>
@@ -39229,28 +39282,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="16">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5506F80-FB6A-470C-ADFF-CCD38423CB50}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A43</xm:f>
+            <xm:f>Site_List!A3:A44</xm:f>
           </x14:formula1>
-          <xm:sqref>A9 A12:A13 A3:A4</xm:sqref>
+          <xm:sqref>A12:A13 A5:A8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D5D8A4C-7990-474A-8CD9-B6CFFEB02007}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A58</xm:f>
+            <xm:f>Site_List!A23:A57</xm:f>
           </x14:formula1>
           <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{951BF909-7B9A-4D80-9BB4-6827B1616D79}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A60</xm:f>
+            <xm:f>Site_List!A10:A62</xm:f>
           </x14:formula1>
-          <xm:sqref>A20 A23:A24</xm:sqref>
+          <xm:sqref>A23:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CFA68AB-9027-44AA-892D-DE4AFA5F411C}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A69</xm:f>
+            <xm:f>Site_List!A23:A68</xm:f>
           </x14:formula1>
           <xm:sqref>A29</xm:sqref>
         </x14:dataValidation>
@@ -39258,71 +39311,65 @@
           <x14:formula1>
             <xm:f>Site_List!A2:A42</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A10:A11 A19</xm:sqref>
+          <xm:sqref>A19 A9:A11 A3:A4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{874A2821-F529-4212-9110-6B88994B22E1}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A71</xm:f>
+            <xm:f>Site_List!A23:A70</xm:f>
           </x14:formula1>
           <xm:sqref>A31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C6E81F9-582D-4488-BA4F-90F9C7EAEEF0}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A57</xm:f>
+            <xm:f>Site_List!A23:A56</xm:f>
           </x14:formula1>
           <xm:sqref>A17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{571FDA5C-140F-40B9-AC96-0FF96480308D}">
           <x14:formula1>
-            <xm:f>Site_List!A24:A68</xm:f>
+            <xm:f>Site_List!A23:A67</xm:f>
           </x14:formula1>
           <xm:sqref>A28 A47:A1048532</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCC10EB7-5690-49DD-9F91-1514A1EEB830}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A61</xm:f>
+            <xm:f>Site_List!A8:A59</xm:f>
           </x14:formula1>
-          <xm:sqref>A30 A21:A22</xm:sqref>
+          <xm:sqref>A30 A20:A22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9BCCBA-E9AC-4BCC-8450-33ECF4AEF916}">
           <x14:formula1>
-            <xm:f>Site_List!A19:A56</xm:f>
+            <xm:f>Site_List!A18:A55</xm:f>
           </x14:formula1>
           <xm:sqref>A16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E11AC72-45BD-4BE2-A3C0-52CC9730CF18}">
           <x14:formula1>
-            <xm:f>Site_List!A19:A67</xm:f>
+            <xm:f>Site_List!A18:A66</xm:f>
           </x14:formula1>
           <xm:sqref>A27 A32:A33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C06900A-E219-4B8C-8B41-9B5239FF51E2}">
           <x14:formula1>
-            <xm:f>Site_List!A31:A74</xm:f>
+            <xm:f>Site_List!A30:A73</xm:f>
           </x14:formula1>
           <xm:sqref>A34:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BE0A669-118C-4D65-9B03-2E7DF719E365}">
           <x14:formula1>
-            <xm:f>Site_List!A15:A65</xm:f>
+            <xm:f>Site_List!A14:A64</xm:f>
           </x14:formula1>
           <xm:sqref>A25:A26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{090F10A3-96C2-439F-A040-1F56976782C2}">
           <x14:formula1>
-            <xm:f>Site_List!A15:A54</xm:f>
+            <xm:f>Site_List!A2:A41</xm:f>
           </x14:formula1>
-          <xm:sqref>A14:A15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61375905-4EC5-4AE4-A135-F5B4940C7A7B}">
-          <x14:formula1>
-            <xm:f>Site_List!A3:A45</xm:f>
-          </x14:formula1>
-          <xm:sqref>A5:A8</xm:sqref>
+          <xm:sqref>A14:A15 A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54FEA14D-50E9-4531-9894-0F9DB060D9BF}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048529</xm:f>
+            <xm:f>Site_List!A1:A1048528</xm:f>
           </x14:formula1>
           <xm:sqref>A1048533:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B13BA3-08DF-4A9F-9CB9-08EC0A1B7BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED4C8AA-8CB0-4107-96FA-75DCB9467FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="9" state="veryHidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Site_List!$A$1:$L$8</definedName>
     <definedName name="ExternalData_1" localSheetId="6" hidden="1">FinalOffsets_backup!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="163">
   <si>
     <t>SiteName</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>CAR</t>
-  </si>
-  <si>
-    <t>Roads</t>
   </si>
   <si>
     <t>MS4-CAR-059</t>
@@ -224,9 +221,6 @@
   </si>
   <si>
     <t>MS4-SMG-098</t>
-  </si>
-  <si>
-    <t>SMR</t>
   </si>
   <si>
     <t>Wood</t>
@@ -438,9 +432,6 @@
   </si>
   <si>
     <t>MS4-CAR-072H</t>
-  </si>
-  <si>
-    <t>MS4-SDR-098B</t>
   </si>
   <si>
     <t>MS4-SDR-034A</t>
@@ -753,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,12 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -807,9 +792,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -849,9 +831,6 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -864,19 +843,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1D97161F-0DC7-41E9-9F16-49EEDE4F2F77}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1338,11 +1307,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62:G64"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,12 +1320,12 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="6" width="14" style="24" customWidth="1"/>
+    <col min="5" max="6" width="14" style="21" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="35"/>
-    <col min="11" max="11" width="9.140625" style="33"/>
+    <col min="8" max="8" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="32"/>
+    <col min="11" max="11" width="9.140625" style="30"/>
     <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1365,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1373,101 +1342,101 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="31" t="s">
+      <c r="H1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>69</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+      <c r="A2" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>33.126249999999999</v>
+        <v>33.122129999999999</v>
       </c>
       <c r="F2" s="3">
-        <v>-117.20518</v>
+        <v>-117.21315</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="33">
-        <v>-4.8499999999999996</v>
-      </c>
-      <c r="I2" s="34">
+        <v>11</v>
+      </c>
+      <c r="H2" s="30">
+        <v>-2.73</v>
+      </c>
+      <c r="I2" s="31">
         <v>90</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="32">
         <v>1122</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="30">
         <v>2.5</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
-        <v>33.120170000000002</v>
+        <v>32.828710000000001</v>
       </c>
       <c r="F3" s="3">
-        <v>-117.21019</v>
+        <v>-116.89487</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="33">
-        <v>-4.78</v>
-      </c>
-      <c r="I3" s="34">
+        <v>30</v>
+      </c>
+      <c r="H3" s="30">
+        <v>-4.2</v>
+      </c>
+      <c r="I3" s="31">
         <v>90</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="32">
         <v>1122</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="30">
         <v>2.5</v>
       </c>
       <c r="L3" t="s">
@@ -1476,36 +1445,36 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>33.120469</v>
+        <v>32.828710000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>-117.210565</v>
+        <v>-116.89489</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="33">
-        <v>-2.76</v>
-      </c>
-      <c r="I4" s="34">
+        <v>31</v>
+      </c>
+      <c r="H4" s="30">
+        <v>-1.64</v>
+      </c>
+      <c r="I4" s="31">
         <v>90</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="32">
         <v>1122</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="30">
         <v>2.5</v>
       </c>
       <c r="L4" t="s">
@@ -1514,1982 +1483,691 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
-        <v>33.120604</v>
+        <v>33.233150999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>-117.216145</v>
+        <v>-117.14391000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="33">
-        <v>-3.2</v>
-      </c>
-      <c r="I5" s="34">
+        <v>32</v>
+      </c>
+      <c r="H5" s="30">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="I5" s="31">
         <v>90</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="32">
         <v>1122</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="30">
         <v>2.5</v>
       </c>
       <c r="L5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="21">
+        <v>33.25112</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-117.14737</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="33">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="I6" s="31">
+        <v>90</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1122</v>
+      </c>
+      <c r="K6" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>32.726632479999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-116.9834604</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="30">
+        <v>-4.22</v>
+      </c>
+      <c r="I7" s="31">
+        <v>90</v>
+      </c>
+      <c r="J7" s="32">
+        <v>1122</v>
+      </c>
+      <c r="K7" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22">
+        <v>32.713181059999997</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-117.0060982</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="34">
+        <v>-5.24</v>
+      </c>
+      <c r="I8" s="31">
+        <v>90</v>
+      </c>
+      <c r="J8" s="32">
+        <v>1122</v>
+      </c>
+      <c r="K8" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="21">
+        <v>33.482542000000002</v>
+      </c>
+      <c r="F9" s="21">
+        <v>-117.72039700000001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="30">
+        <v>-6.56</v>
+      </c>
+      <c r="I9" s="31">
+        <v>90</v>
+      </c>
+      <c r="J9" s="32">
+        <v>1122</v>
+      </c>
+      <c r="K9" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="21">
+        <v>33.481084299999999</v>
+      </c>
+      <c r="F10" s="21">
+        <v>-117.70553459999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="30">
+        <v>-2.48</v>
+      </c>
+      <c r="I10" s="31">
+        <v>90</v>
+      </c>
+      <c r="J10" s="32">
+        <v>1122</v>
+      </c>
+      <c r="K10" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="36">
+        <v>32.820459999999997</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="32">
+        <v>893.1</v>
+      </c>
+      <c r="K11" s="30">
+        <v>2.04</v>
+      </c>
+      <c r="L11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>33.122129999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>-117.21315</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="33">
-        <v>-2.73</v>
-      </c>
-      <c r="I6" s="34">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="36">
+        <v>32.818899999999999</v>
+      </c>
+      <c r="F12" s="36">
+        <v>-116.959</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="32">
+        <v>893.1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>2.04</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13">
+        <v>33.508595999999997</v>
+      </c>
+      <c r="F13">
+        <v>-117.707369</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
         <v>90</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J13" s="32">
         <v>1122</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K13" s="30">
         <v>2.5</v>
       </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="23">
-        <v>32.852333000000002</v>
-      </c>
-      <c r="F7" s="23">
-        <v>-116.929777</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
-        <v>90</v>
-      </c>
-      <c r="J7" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K7" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="23">
-        <v>32.839927000000003</v>
-      </c>
-      <c r="F8" s="23">
-        <v>-116.916022</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
-        <v>90</v>
-      </c>
-      <c r="J8" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K8" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <v>32.849119999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-116.88415999999999</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="33">
-        <v>-4.2</v>
-      </c>
-      <c r="I9" s="34">
-        <v>90</v>
-      </c>
-      <c r="J9" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K9" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>32.828710000000001</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-116.89487</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="33">
-        <v>-4.2</v>
-      </c>
-      <c r="I10" s="34">
-        <v>90</v>
-      </c>
-      <c r="J10" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K10" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>32.828710000000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-116.89489</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="33">
-        <v>-1.64</v>
-      </c>
-      <c r="I11" s="34">
-        <v>90</v>
-      </c>
-      <c r="J11" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K11" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="24">
-        <v>33.005504999999999</v>
-      </c>
-      <c r="F12" s="24">
-        <v>-116.782614</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <v>90</v>
-      </c>
-      <c r="J12" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K12" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="23">
-        <v>33.002426999999997</v>
-      </c>
-      <c r="F13" s="23">
-        <v>-116.803258</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <v>90</v>
-      </c>
-      <c r="J13" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K13" s="33">
-        <v>2.5</v>
-      </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <v>32.832599999999999</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-116.9055</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="33">
-        <v>-3.25</v>
-      </c>
-      <c r="I14" s="34">
-        <v>90</v>
-      </c>
-      <c r="J14" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K14" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>72</v>
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="21">
+        <v>32.656111099999997</v>
+      </c>
+      <c r="F14" s="21">
+        <v>-117.0341667</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3">
-        <v>33.233150999999999</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-117.14391000000001</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="33">
-        <v>-4.5599999999999996</v>
-      </c>
-      <c r="I15" s="34">
-        <v>90</v>
-      </c>
-      <c r="J15" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K15" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
+      <c r="E15" s="21">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F15" s="21">
+        <v>-117.2191667</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="24">
-        <v>33.25112</v>
-      </c>
-      <c r="F16" s="24">
-        <v>-117.14737</v>
-      </c>
-      <c r="G16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="36">
-        <v>-0.57999999999999996</v>
-      </c>
-      <c r="I16" s="34">
+        <v>154</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21">
+        <v>32.871792999999997</v>
+      </c>
+      <c r="F16" s="21">
+        <v>-116.915448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="21">
+        <v>33.1952778</v>
+      </c>
+      <c r="F17" s="21">
+        <v>-117.12638889999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="21">
+        <v>33.048333300000003</v>
+      </c>
+      <c r="F18" s="21">
+        <v>-117.2263889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="21">
+        <v>33.354669000000001</v>
+      </c>
+      <c r="F19" s="21">
+        <v>-117.251279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="21">
+        <v>32.847104000000002</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-116.85780099999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="21">
+        <v>32.836359000000002</v>
+      </c>
+      <c r="F21" s="21">
+        <v>-116.899664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21">
+        <v>33.048055599999998</v>
+      </c>
+      <c r="F22" s="21">
+        <v>-116.8608333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21">
+        <v>33.021944400000002</v>
+      </c>
+      <c r="F23" s="21">
+        <v>-117.0825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="21">
+        <v>32.736511</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="21">
+        <v>33.147222200000002</v>
+      </c>
+      <c r="F25" s="21">
+        <v>-117.1961111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="21">
+        <v>33.350177000000002</v>
+      </c>
+      <c r="F26" s="21">
+        <v>-117.523465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="21">
+        <v>33.000059999999998</v>
+      </c>
+      <c r="F27" s="21">
+        <v>-116.758686</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="21">
+        <v>33.532233900000001</v>
+      </c>
+      <c r="F28">
+        <v>-117.6466183</v>
+      </c>
+      <c r="G28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="30">
+        <v>-3.23</v>
+      </c>
+      <c r="I28" s="32">
         <v>90</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J28" s="30">
         <v>1122</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K28">
         <v>2.5</v>
       </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="23">
-        <v>33.380755999999998</v>
-      </c>
-      <c r="F17" s="23">
-        <v>-117.234165</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="36">
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="21">
+        <v>33.534731000000001</v>
+      </c>
+      <c r="F29">
+        <v>-117.64620600000001</v>
+      </c>
+      <c r="G29" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="30">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I29" s="32">
         <v>90</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J29" s="30">
         <v>1122</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K29">
         <v>2.5</v>
       </c>
-      <c r="L17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3">
-        <v>33.345700000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-117.2405</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="33">
-        <v>-4.95</v>
-      </c>
-      <c r="I18" s="34">
+      <c r="L29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="21">
+        <v>33.539239700000003</v>
+      </c>
+      <c r="F30">
+        <v>-117.6405702</v>
+      </c>
+      <c r="G30" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="30">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I30" s="32">
         <v>90</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J30" s="30">
         <v>1122</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K30">
         <v>2.5</v>
       </c>
-      <c r="L18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="23">
-        <v>33.351405999999997</v>
-      </c>
-      <c r="F19" s="23">
-        <v>-117.23723</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="36">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
-        <v>90</v>
-      </c>
-      <c r="J19" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K19" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="23">
-        <v>33.303246610000002</v>
-      </c>
-      <c r="F20" s="23">
-        <v>-117.2430631</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H20" s="36">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34">
-        <v>90</v>
-      </c>
-      <c r="J20" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K20" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="23">
-        <v>32.768979000000002</v>
-      </c>
-      <c r="F21" s="23">
-        <v>-116.927633</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="37">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34">
-        <v>90</v>
-      </c>
-      <c r="J21" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K21" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="23">
-        <v>32.767411000000003</v>
-      </c>
-      <c r="F22" s="23">
-        <v>-116.924937</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <v>90</v>
-      </c>
-      <c r="J22" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K22" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3">
-        <v>32.726632479999999</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-116.9834604</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="33">
-        <v>-4.22</v>
-      </c>
-      <c r="I23" s="34">
-        <v>90</v>
-      </c>
-      <c r="J23" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K23" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="24">
-        <v>32.747861</v>
-      </c>
-      <c r="F24" s="24">
-        <v>-116.98747</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="33">
-        <v>-4.2</v>
-      </c>
-      <c r="I24" s="34">
-        <v>90</v>
-      </c>
-      <c r="J24" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K24" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="25">
-        <v>32.713181059999997</v>
-      </c>
-      <c r="F25" s="26">
-        <v>-117.0060982</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="38">
-        <v>-5.24</v>
-      </c>
-      <c r="I25" s="34">
-        <v>90</v>
-      </c>
-      <c r="J25" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K25" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="25">
-        <v>32.7348</v>
-      </c>
-      <c r="F26" s="26">
-        <v>-116.971</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="38">
-        <v>0</v>
-      </c>
-      <c r="I26" s="34">
-        <v>90</v>
-      </c>
-      <c r="J26" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K26" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="25">
-        <v>32.691803999999998</v>
-      </c>
-      <c r="F27" s="26">
-        <v>-117.01728</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" s="38">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34">
-        <v>90</v>
-      </c>
-      <c r="J27" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K27" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="25">
-        <v>32.766598000000002</v>
-      </c>
-      <c r="F28" s="26">
-        <v>-116.91793800000001</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H28" s="38">
-        <v>0</v>
-      </c>
-      <c r="I28" s="34">
-        <v>90</v>
-      </c>
-      <c r="J28" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K28" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="25">
-        <v>32.743315000000003</v>
-      </c>
-      <c r="F29" s="26">
-        <v>-116.934309</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="38">
-        <v>0</v>
-      </c>
-      <c r="I29" s="34">
-        <v>90</v>
-      </c>
-      <c r="J29" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K29" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="24">
-        <v>33.01896</v>
-      </c>
-      <c r="F30" s="24">
-        <v>-117.1063</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="33">
-        <v>-3.7401574803149606</v>
-      </c>
-      <c r="I30" s="34">
-        <v>45</v>
-      </c>
-      <c r="J30" s="35">
-        <v>464.5</v>
-      </c>
-      <c r="K30" s="33">
-        <v>2.5</v>
-      </c>
       <c r="L30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="24">
-        <v>33.017580000000002</v>
-      </c>
-      <c r="F31" s="24">
-        <v>-117.10279</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="33">
-        <v>-1.1811023622047245</v>
-      </c>
-      <c r="I31" s="34">
-        <v>60</v>
-      </c>
-      <c r="J31" s="35">
-        <v>647.6</v>
-      </c>
-      <c r="K31" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="24">
-        <v>33.015270000000001</v>
-      </c>
-      <c r="F32" s="24">
-        <v>-117.10756000000001</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="33">
-        <v>-1.2598425196850394</v>
-      </c>
-      <c r="I32" s="34">
-        <v>22.5</v>
-      </c>
-      <c r="J32" s="35">
-        <v>223.1</v>
-      </c>
-      <c r="K32" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="24">
-        <v>33.019030000000001</v>
-      </c>
-      <c r="F33" s="24">
-        <v>-117.10876</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="33">
-        <v>-3.3858267716535435</v>
-      </c>
-      <c r="I33" s="34">
-        <v>22.5</v>
-      </c>
-      <c r="J33" s="35">
-        <v>223.1</v>
-      </c>
-      <c r="K33" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="24">
-        <v>33.021160000000002</v>
-      </c>
-      <c r="F34" s="24">
-        <v>-117.10648999999999</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="33">
-        <v>-1.6141732283464567</v>
-      </c>
-      <c r="I34" s="34">
-        <v>90</v>
-      </c>
-      <c r="J34" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K34" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="24">
-        <v>33.003030000000003</v>
-      </c>
-      <c r="F35" s="24">
-        <v>-117.11605</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="33">
-        <v>-4.0944881889763778</v>
-      </c>
-      <c r="I35" s="34">
-        <v>90</v>
-      </c>
-      <c r="J35" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K35" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="24">
-        <v>33.047150000000002</v>
-      </c>
-      <c r="F36" s="24">
-        <v>-116.8659</v>
-      </c>
-      <c r="G36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="33">
-        <v>-8.1102362204724407</v>
-      </c>
-      <c r="I36" s="34">
-        <v>90</v>
-      </c>
-      <c r="J36" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K36" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="24">
-        <v>33.043460000000003</v>
-      </c>
-      <c r="F37" s="24">
-        <v>-116.87215999999999</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="33">
-        <v>-5</v>
-      </c>
-      <c r="I37" s="34">
-        <v>90</v>
-      </c>
-      <c r="J37" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K37" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="24">
-        <v>33.374760000000002</v>
-      </c>
-      <c r="F38" s="24">
-        <v>-117.25261</v>
-      </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="33">
-        <v>-3.6614173228346458</v>
-      </c>
-      <c r="I38" s="34">
-        <v>90</v>
-      </c>
-      <c r="J38" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K38" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="24">
-        <v>33.374769999999998</v>
-      </c>
-      <c r="F39" s="24">
-        <v>-117.25259</v>
-      </c>
-      <c r="G39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="33">
-        <v>-3.6614173228346458</v>
-      </c>
-      <c r="I39" s="34">
-        <v>90</v>
-      </c>
-      <c r="J39" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K39" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="24">
-        <v>33.373779999999996</v>
-      </c>
-      <c r="F40" s="24">
-        <v>-117.25288999999999</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="33">
-        <v>-2.5196850393700787</v>
-      </c>
-      <c r="I40" s="34">
-        <v>22.5</v>
-      </c>
-      <c r="J40" s="35">
-        <v>223.1</v>
-      </c>
-      <c r="K40" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="24">
-        <v>33.376750000000001</v>
-      </c>
-      <c r="F41" s="24">
-        <v>-117.25579</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="33">
-        <v>-2.2834645669291338</v>
-      </c>
-      <c r="I41" s="34">
-        <v>45</v>
-      </c>
-      <c r="J41" s="35">
-        <v>464.5</v>
-      </c>
-      <c r="K41" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="24">
-        <v>33.482542000000002</v>
-      </c>
-      <c r="F42" s="24">
-        <v>-117.72039700000001</v>
-      </c>
-      <c r="G42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="33">
-        <v>-6.56</v>
-      </c>
-      <c r="I42" s="34">
-        <v>90</v>
-      </c>
-      <c r="J42" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K42" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="24">
-        <v>33.481084299999999</v>
-      </c>
-      <c r="F43" s="24">
-        <v>-117.70553459999999</v>
-      </c>
-      <c r="G43" t="s">
-        <v>147</v>
-      </c>
-      <c r="H43" s="33">
-        <v>-2.48</v>
-      </c>
-      <c r="I43" s="34">
-        <v>90</v>
-      </c>
-      <c r="J43" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K43" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="40">
-        <v>32.820459999999997</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" s="35">
-        <v>893.1</v>
-      </c>
-      <c r="K44" s="33">
-        <v>2.04</v>
-      </c>
-      <c r="L44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="40">
-        <v>32.821399999999997</v>
-      </c>
-      <c r="F45" s="40">
-        <v>-116.96</v>
-      </c>
-      <c r="G45" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="L45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="40">
-        <v>32.818899999999999</v>
-      </c>
-      <c r="F46" s="40">
-        <v>-116.959</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" s="35">
-        <v>893.1</v>
-      </c>
-      <c r="K46" s="33">
-        <v>2.04</v>
-      </c>
-      <c r="L46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47">
-        <v>33.508595999999997</v>
-      </c>
-      <c r="F47">
-        <v>-117.707369</v>
-      </c>
-      <c r="G47" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="33">
-        <v>0</v>
-      </c>
-      <c r="I47" s="34">
-        <v>90</v>
-      </c>
-      <c r="J47" s="35">
-        <v>1122</v>
-      </c>
-      <c r="K47" s="33">
-        <v>2.5</v>
-      </c>
-      <c r="L47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="24">
-        <v>32.656111099999997</v>
-      </c>
-      <c r="F48" s="24">
-        <v>-117.0341667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="24">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="F49" s="24">
-        <v>-117.2191667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="24">
-        <v>32.871792999999997</v>
-      </c>
-      <c r="F50" s="24">
-        <v>-116.915448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="24">
-        <v>33.1952778</v>
-      </c>
-      <c r="F51" s="24">
-        <v>-117.12638889999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="24">
-        <v>33.048333300000003</v>
-      </c>
-      <c r="F52" s="24">
-        <v>-117.2263889</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="24">
-        <v>33.354669000000001</v>
-      </c>
-      <c r="F53" s="24">
-        <v>-117.251279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="24">
-        <v>32.847104000000002</v>
-      </c>
-      <c r="F54" s="24">
-        <v>-116.85780099999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="24">
-        <v>32.836359000000002</v>
-      </c>
-      <c r="F55" s="24">
-        <v>-116.899664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="24">
-        <v>33.048055599999998</v>
-      </c>
-      <c r="F56" s="24">
-        <v>-116.8608333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="24">
-        <v>33.021944400000002</v>
-      </c>
-      <c r="F57" s="24">
-        <v>-117.0825</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="24">
-        <v>32.736511</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="24">
-        <v>33.147222200000002</v>
-      </c>
-      <c r="F59" s="24">
-        <v>-117.1961111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="24">
-        <v>33.350177000000002</v>
-      </c>
-      <c r="F60" s="24">
-        <v>-117.523465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="24">
-        <v>33.000059999999998</v>
-      </c>
-      <c r="F61" s="24">
-        <v>-116.758686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="24">
-        <v>33.532233900000001</v>
-      </c>
-      <c r="F62">
-        <v>-117.6466183</v>
-      </c>
-      <c r="G62" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="33">
-        <v>-3.23</v>
-      </c>
-      <c r="I62" s="35">
-        <v>90</v>
-      </c>
-      <c r="J62" s="33">
-        <v>1122</v>
-      </c>
-      <c r="K62">
-        <v>2.5</v>
-      </c>
-      <c r="L62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" s="24">
-        <v>33.534731000000001</v>
-      </c>
-      <c r="F63">
-        <v>-117.64620600000001</v>
-      </c>
-      <c r="G63" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="33">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="I63" s="35">
-        <v>90</v>
-      </c>
-      <c r="J63" s="33">
-        <v>1122</v>
-      </c>
-      <c r="K63">
-        <v>2.5</v>
-      </c>
-      <c r="L63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="24">
-        <v>33.539239700000003</v>
-      </c>
-      <c r="F64">
-        <v>-117.6405702</v>
-      </c>
-      <c r="G64" t="s">
-        <v>165</v>
-      </c>
-      <c r="H64" s="33">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="I64" s="35">
-        <v>90</v>
-      </c>
-      <c r="J64" s="33">
-        <v>1122</v>
-      </c>
-      <c r="K64">
-        <v>2.5</v>
-      </c>
-      <c r="L64" t="s">
-        <v>149</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L41" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:F61">
-    <sortCondition ref="A48:A61"/>
+  <autoFilter ref="A1:L8" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:F27">
+    <sortCondition ref="A14:A27"/>
   </sortState>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FC">
-      <formula>NOT(ISERROR(SEARCH("FC",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3499,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -3513,10 +2191,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>5</v>
@@ -3524,28 +2202,28 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>B4</f>
@@ -3554,10 +2232,10 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10" t="str">
         <f>B5</f>
@@ -3566,10 +2244,10 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>B6</f>
@@ -3577,20 +2255,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>46</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>B8</f>
@@ -3598,11 +2276,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>47</v>
+      <c r="A9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>B9</f>
@@ -3610,20 +2288,20 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="C11" s="10" t="str">
         <f>B11</f>
@@ -3631,322 +2309,322 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="29"/>
+      <c r="A15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="26"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="25" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="29"/>
+        <v>124</v>
+      </c>
+      <c r="C19" s="26"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>41</v>
+      <c r="A21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>33</v>
+      <c r="A22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="29"/>
+        <v>137</v>
+      </c>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>43</v>
+      <c r="A25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="28"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="28"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="28"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="29"/>
+      <c r="A33" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="29"/>
+      <c r="A34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="25"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="28"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B47" s="35" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3973,10 +2651,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -34011,27 +32689,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="13">
         <v>44333</v>
@@ -34040,15 +32718,15 @@
         <v>44334</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="13">
         <v>44383.166666666664</v>
@@ -34057,15 +32735,15 @@
         <v>44383.416666666664</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="13">
         <v>44395.125</v>
@@ -34074,12 +32752,12 @@
         <v>44396.125</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13">
         <v>44403</v>
@@ -34088,12 +32766,12 @@
         <v>44404</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="13">
         <v>44332.25</v>
@@ -34102,15 +32780,15 @@
         <v>44334.25</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="13">
         <v>44352.927083333336</v>
@@ -34119,15 +32797,15 @@
         <v>44355.135416666664</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="13">
         <v>44370</v>
@@ -34136,15 +32814,15 @@
         <v>44371</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13">
         <v>44395.125</v>
@@ -34153,15 +32831,15 @@
         <v>44397.489583333336</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="13">
         <v>44403</v>
@@ -34170,12 +32848,12 @@
         <v>44404</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="13">
         <v>44437</v>
@@ -34184,12 +32862,12 @@
         <v>44438</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13">
         <v>44439</v>
@@ -34198,12 +32876,12 @@
         <v>44440</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13">
         <v>44325.270833333336</v>
@@ -34212,15 +32890,15 @@
         <v>44329.5625</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="13">
         <v>44332.25</v>
@@ -34229,15 +32907,15 @@
         <v>44334.25</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="13">
         <v>44355.513888888891</v>
@@ -34246,15 +32924,15 @@
         <v>44363.076388888891</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="13">
         <v>44370</v>
@@ -34263,12 +32941,12 @@
         <v>44371</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="13">
         <v>44380.524305555555</v>
@@ -34277,15 +32955,15 @@
         <v>44389.291666666664</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="13">
         <v>44395.125</v>
@@ -34294,12 +32972,12 @@
         <v>44397.520833333336</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="13">
         <v>44403</v>
@@ -34308,12 +32986,12 @@
         <v>44404</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="13">
         <v>44408.322916666664</v>
@@ -34322,15 +33000,15 @@
         <v>44419.684027777781</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="13">
         <v>44437</v>
@@ -34339,12 +33017,12 @@
         <v>44438</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="13">
         <v>44439</v>
@@ -34353,12 +33031,12 @@
         <v>44440</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="13">
         <v>44332.25</v>
@@ -34367,15 +33045,15 @@
         <v>44334.25</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="13">
         <v>44370</v>
@@ -34384,18 +33062,18 @@
         <v>44371</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="13">
         <v>44392.46875</v>
@@ -34404,18 +33082,18 @@
         <v>44392.53125</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="13">
         <v>44395.125</v>
@@ -34424,12 +33102,12 @@
         <v>44397.423611111109</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="13">
         <v>44403</v>
@@ -34438,12 +33116,12 @@
         <v>44404</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="13">
         <v>44437</v>
@@ -34452,12 +33130,12 @@
         <v>44438</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="13">
         <v>44439</v>
@@ -34466,12 +33144,12 @@
         <v>44440</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="13">
         <v>44332.25</v>
@@ -34480,15 +33158,15 @@
         <v>44334.25</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="13">
         <v>44343.493055555555</v>
@@ -34497,15 +33175,15 @@
         <v>44343.503472222219</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="13">
         <v>44370</v>
@@ -34514,12 +33192,12 @@
         <v>44371</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="13">
         <v>44395.125</v>
@@ -34528,12 +33206,12 @@
         <v>44397.420138888891</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="13">
         <v>44403</v>
@@ -34542,12 +33220,12 @@
         <v>44404</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="13">
         <v>44437</v>
@@ -34556,12 +33234,12 @@
         <v>44440</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="13">
         <v>44332.25</v>
@@ -34570,15 +33248,15 @@
         <v>44334.25</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="13">
         <v>44370</v>
@@ -34587,12 +33265,12 @@
         <v>44371</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="13">
         <v>44395.125</v>
@@ -34601,12 +33279,12 @@
         <v>44396.125</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="13">
         <v>44403</v>
@@ -34615,12 +33293,12 @@
         <v>44404</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="13">
         <v>44437</v>
@@ -34629,12 +33307,12 @@
         <v>44438</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="13">
         <v>44439</v>
@@ -34643,12 +33321,12 @@
         <v>44440</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" s="13">
         <v>44332.25</v>
@@ -34657,15 +33335,15 @@
         <v>44334.25</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="13">
         <v>44370</v>
@@ -34674,12 +33352,12 @@
         <v>44371</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="13">
         <v>44395.125</v>
@@ -34688,12 +33366,12 @@
         <v>44397.472222222219</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="13">
         <v>44403</v>
@@ -34702,12 +33380,12 @@
         <v>44404</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="13">
         <v>44437</v>
@@ -34716,12 +33394,12 @@
         <v>44438</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="13">
         <v>44439</v>
@@ -34730,12 +33408,12 @@
         <v>44440</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="13">
         <v>44321.25</v>
@@ -34744,18 +33422,18 @@
         <v>44328.388888888891</v>
       </c>
       <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="E48" t="s">
-        <v>93</v>
-      </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="13">
         <v>44329.5625</v>
@@ -34764,15 +33442,15 @@
         <v>44330.520833333336</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="13">
         <v>44335.270833333336</v>
@@ -34781,15 +33459,15 @@
         <v>44336.3125</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="13">
         <v>44337.354166666664</v>
@@ -34798,15 +33476,15 @@
         <v>44338.145833333336</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="13">
         <v>44340.0625</v>
@@ -34815,18 +33493,18 @@
         <v>44340.604166666664</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" s="13">
         <v>44362.583333333336</v>
@@ -34835,18 +33513,18 @@
         <v>44365.364583333336</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="13">
         <v>44370</v>
@@ -34855,15 +33533,15 @@
         <v>44371</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="13">
         <v>44391.197916666664</v>
@@ -34872,12 +33550,12 @@
         <v>44392.53125</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56" s="13">
         <v>44395.125</v>
@@ -34886,15 +33564,15 @@
         <v>44402.416666666664</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" s="13">
         <v>44403.166666666664</v>
@@ -34903,15 +33581,15 @@
         <v>44412</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58" s="13">
         <v>44423</v>
@@ -34920,12 +33598,12 @@
         <v>44424</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="13">
         <v>44429</v>
@@ -34934,12 +33612,12 @@
         <v>44430</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="13">
         <v>44437</v>
@@ -34948,12 +33626,12 @@
         <v>44441</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="13">
         <v>44370</v>
@@ -34962,12 +33640,12 @@
         <v>44371</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B62" s="13">
         <v>44395.125</v>
@@ -34976,15 +33654,15 @@
         <v>44399.694444444445</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="13">
         <v>44403.166666666664</v>
@@ -34993,12 +33671,12 @@
         <v>44404</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="13">
         <v>44423</v>
@@ -35007,12 +33685,12 @@
         <v>44424</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="13">
         <v>44429</v>
@@ -35021,12 +33699,12 @@
         <v>44430</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="13">
         <v>44437</v>
@@ -35035,12 +33713,12 @@
         <v>44441</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67" s="13">
         <v>44335.520833333336</v>
@@ -35049,18 +33727,18 @@
         <v>44336.6875</v>
       </c>
       <c r="D67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="13">
         <v>44337.4375</v>
@@ -35069,18 +33747,18 @@
         <v>44340.5625</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69" s="13">
         <v>44350.854166666664</v>
@@ -35089,18 +33767,18 @@
         <v>44351.525000000001</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" s="13">
         <v>44361.854166666664</v>
@@ -35109,18 +33787,18 @@
         <v>44365.395833333336</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" s="13">
         <v>44370</v>
@@ -35129,15 +33807,15 @@
         <v>44371</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" s="13">
         <v>44386.888888888891</v>
@@ -35146,12 +33824,12 @@
         <v>44387.916666666664</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="13">
         <v>44389.888888888891</v>
@@ -35160,12 +33838,12 @@
         <v>44390.888888888891</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="13">
         <v>44395.125</v>
@@ -35174,15 +33852,15 @@
         <v>44396.125</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="13">
         <v>44396.125</v>
@@ -35191,15 +33869,15 @@
         <v>44400.711805555555</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="13">
         <v>44402.270833333336</v>
@@ -35208,12 +33886,12 @@
         <v>44403.145833333336</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="13">
         <v>44403.145833333336</v>
@@ -35222,15 +33900,15 @@
         <v>44405.5</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" s="13">
         <v>44406.881944444445</v>
@@ -35239,15 +33917,15 @@
         <v>44414.527777777781</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79" s="13">
         <v>44415.888888888891</v>
@@ -35256,12 +33934,12 @@
         <v>44419.472222222219</v>
       </c>
       <c r="D79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" s="13">
         <v>44420.958333333336</v>
@@ -35270,12 +33948,12 @@
         <v>44425.604166666664</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B81" s="13">
         <v>44427.958333333336</v>
@@ -35284,12 +33962,12 @@
         <v>44428.041666666664</v>
       </c>
       <c r="D81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="13">
         <v>44428.916666666664</v>
@@ -35298,12 +33976,12 @@
         <v>44434.541666666664</v>
       </c>
       <c r="D82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" s="13">
         <v>44429</v>
@@ -35312,12 +33990,12 @@
         <v>44430</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84" s="13">
         <v>44437</v>
@@ -35326,12 +34004,12 @@
         <v>44438</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="13">
         <v>44438.833333333336</v>
@@ -35340,12 +34018,12 @@
         <v>44440</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" s="13">
         <v>44442.260416666664</v>
@@ -35354,12 +34032,12 @@
         <v>44442.84375</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B87" s="13">
         <v>44445.21875</v>
@@ -35368,12 +34046,12 @@
         <v>44445.927083333336</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="13">
         <v>44447.09375</v>
@@ -35382,12 +34060,12 @@
         <v>44448.895833333336</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="13">
         <v>44449.145833333336</v>
@@ -35396,12 +34074,12 @@
         <v>44450.229166666664</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B90" s="13">
         <v>44451.1875</v>
@@ -35410,12 +34088,12 @@
         <v>44452.0625</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B91" s="13">
         <v>44452.9375</v>
@@ -35424,12 +34102,12 @@
         <v>44454.996527777781</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92" s="13">
         <v>44395.125</v>
@@ -35438,12 +34116,12 @@
         <v>44405.5</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B93" s="13">
         <v>44429</v>
@@ -35452,12 +34130,12 @@
         <v>44430</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94" s="13">
         <v>44437</v>
@@ -35466,12 +34144,12 @@
         <v>44438</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B95" s="13">
         <v>44439</v>
@@ -35480,12 +34158,12 @@
         <v>44446</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="13">
         <v>44327.5625</v>
@@ -35494,15 +34172,15 @@
         <v>44328.520833333336</v>
       </c>
       <c r="D96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97" s="13">
         <v>44330.1875</v>
@@ -35511,18 +34189,18 @@
         <v>44330.5625</v>
       </c>
       <c r="D97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="13">
         <v>44336.1875</v>
@@ -35531,18 +34209,18 @@
         <v>44336.854166666664</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E98" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="13">
         <v>44340.8125</v>
@@ -35551,18 +34229,18 @@
         <v>44341.645833333336</v>
       </c>
       <c r="D99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="13">
         <v>44364.21875</v>
@@ -35571,15 +34249,15 @@
         <v>44364.46875</v>
       </c>
       <c r="D100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="13">
         <v>44367.166666666664</v>
@@ -35588,15 +34266,15 @@
         <v>44370.104166666664</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" s="13">
         <v>44370</v>
@@ -35605,15 +34283,15 @@
         <v>44371</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="13">
         <v>44371.1875</v>
@@ -35622,15 +34300,15 @@
         <v>44372.479166666664</v>
       </c>
       <c r="D103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="13">
         <v>44395.125</v>
@@ -35639,12 +34317,12 @@
         <v>44396.125</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="13">
         <v>44403</v>
@@ -35653,12 +34331,12 @@
         <v>44404</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="13">
         <v>44418.100694444445</v>
@@ -35667,12 +34345,12 @@
         <v>44419.684027777781</v>
       </c>
       <c r="D106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="13">
         <v>44419.809027777781</v>
@@ -35681,12 +34359,12 @@
         <v>44425.059027777781</v>
       </c>
       <c r="D107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" s="13">
         <v>44429</v>
@@ -35695,12 +34373,12 @@
         <v>44430</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" s="13">
         <v>44431.809027777781</v>
@@ -35709,12 +34387,12 @@
         <v>44434.517361111109</v>
       </c>
       <c r="D109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="13">
         <v>44437</v>
@@ -35723,12 +34401,12 @@
         <v>44438</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="13">
         <v>44439</v>
@@ -35737,12 +34415,12 @@
         <v>44440</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="13">
         <v>44445.038194444445</v>
@@ -35751,12 +34429,12 @@
         <v>44446.208333333336</v>
       </c>
       <c r="D112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="13">
         <v>44448.163194444445</v>
@@ -35765,12 +34443,12 @@
         <v>44449.871527777781</v>
       </c>
       <c r="D113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="13">
         <v>44450.829861111109</v>
@@ -35779,12 +34457,12 @@
         <v>44454.996527777781</v>
       </c>
       <c r="D114" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115" s="13">
         <v>44370</v>
@@ -35793,12 +34471,12 @@
         <v>44371</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B116" s="13">
         <v>44395.125</v>
@@ -35807,12 +34485,12 @@
         <v>44396.125</v>
       </c>
       <c r="D116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" s="13">
         <v>44403</v>
@@ -35821,12 +34499,12 @@
         <v>44405.541666666664</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B118" s="13">
         <v>44370</v>
@@ -35835,12 +34513,12 @@
         <v>44371</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B119" s="13">
         <v>44395.125</v>
@@ -35849,12 +34527,12 @@
         <v>44404.5</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="13">
         <v>44334</v>
@@ -35863,15 +34541,15 @@
         <v>44335</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B121" s="13">
         <v>44370.517361111109</v>
@@ -35880,15 +34558,15 @@
         <v>44372.142361111109</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" s="13">
         <v>44401.6875</v>
@@ -35897,12 +34575,12 @@
         <v>44402.222222222219</v>
       </c>
       <c r="D122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123" s="13">
         <v>44403</v>
@@ -35911,12 +34589,12 @@
         <v>44404</v>
       </c>
       <c r="D123" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B124" s="13">
         <v>44439</v>
@@ -35925,12 +34603,12 @@
         <v>44440</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125" s="13">
         <v>44334</v>
@@ -35939,15 +34617,15 @@
         <v>44335</v>
       </c>
       <c r="D125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B126" s="13">
         <v>44358.28125</v>
@@ -35956,15 +34634,15 @@
         <v>44358.854166666664</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B127" s="13">
         <v>44369.739583333336</v>
@@ -35973,15 +34651,15 @@
         <v>44372.28125</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="13">
         <v>44390.361111111109</v>
@@ -35990,12 +34668,12 @@
         <v>44390.861111111109</v>
       </c>
       <c r="D128" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="13">
         <v>44395.125</v>
@@ -36004,15 +34682,15 @@
         <v>44397.541666666664</v>
       </c>
       <c r="D129" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E129" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" s="13">
         <v>44398.902777777781</v>
@@ -36021,12 +34699,12 @@
         <v>44400.444444444445</v>
       </c>
       <c r="D130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B131" s="13">
         <v>44403</v>
@@ -36035,12 +34713,12 @@
         <v>44404</v>
       </c>
       <c r="D131" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B132" s="13">
         <v>44410.565972222219</v>
@@ -36049,12 +34727,12 @@
         <v>44412.402777777781</v>
       </c>
       <c r="D132" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B133" s="13">
         <v>44430.354166666664</v>
@@ -36063,12 +34741,12 @@
         <v>44434.395833333336</v>
       </c>
       <c r="D133" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B134" s="13">
         <v>44439</v>
@@ -36077,12 +34755,12 @@
         <v>44440</v>
       </c>
       <c r="D134" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B135" s="13">
         <v>44395.125</v>
@@ -36091,12 +34769,12 @@
         <v>44396.125</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B136" s="13">
         <v>44403</v>
@@ -36105,12 +34783,12 @@
         <v>44404</v>
       </c>
       <c r="D136" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B137" s="13">
         <v>44403</v>
@@ -36119,12 +34797,12 @@
         <v>44404</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B138" s="13">
         <v>44423</v>
@@ -36133,12 +34811,12 @@
         <v>44424</v>
       </c>
       <c r="D138" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B139" s="13">
         <v>44429</v>
@@ -36147,12 +34825,12 @@
         <v>44430</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B140" s="13">
         <v>44437</v>
@@ -36161,12 +34839,12 @@
         <v>44438</v>
       </c>
       <c r="D140" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B141" s="13">
         <v>44439</v>
@@ -36175,12 +34853,12 @@
         <v>44440</v>
       </c>
       <c r="D141" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B142" s="13">
         <v>44395.125</v>
@@ -36189,12 +34867,12 @@
         <v>44396.125</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B143" s="13">
         <v>44403</v>
@@ -36203,12 +34881,12 @@
         <v>44404</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144" s="13">
         <v>44423</v>
@@ -36217,12 +34895,12 @@
         <v>44424</v>
       </c>
       <c r="D144" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B145" s="13">
         <v>44429</v>
@@ -36231,12 +34909,12 @@
         <v>44430</v>
       </c>
       <c r="D145" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B146" s="13">
         <v>44437</v>
@@ -36245,12 +34923,12 @@
         <v>44438</v>
       </c>
       <c r="D146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B147" s="13">
         <v>44439</v>
@@ -36259,12 +34937,12 @@
         <v>44440</v>
       </c>
       <c r="D147" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B148" s="13">
         <v>44415.770833333336</v>
@@ -36273,12 +34951,12 @@
         <v>44419.270833333336</v>
       </c>
       <c r="D148" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B149" s="13">
         <v>44334</v>
@@ -36287,15 +34965,15 @@
         <v>44335</v>
       </c>
       <c r="D149" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F149" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B150" s="13">
         <v>44349.083333333336</v>
@@ -36304,18 +34982,18 @@
         <v>44349.416666666664</v>
       </c>
       <c r="D150" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E150" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F150" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B151" s="13">
         <v>44359</v>
@@ -36324,18 +35002,18 @@
         <v>44359.333333333336</v>
       </c>
       <c r="D151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E151" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F151" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B152" s="13">
         <v>44360.625</v>
@@ -36344,18 +35022,18 @@
         <v>44361</v>
       </c>
       <c r="D152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F152" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B153" s="13">
         <v>44395.125</v>
@@ -36364,15 +35042,15 @@
         <v>44396.75</v>
       </c>
       <c r="D153" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E153" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B154" s="13">
         <v>44403</v>
@@ -36381,12 +35059,12 @@
         <v>44404</v>
       </c>
       <c r="D154" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B155" s="13">
         <v>44423</v>
@@ -36395,12 +35073,12 @@
         <v>44424</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B156" s="13">
         <v>44328.166666666664</v>
@@ -36409,15 +35087,15 @@
         <v>44329.791666666664</v>
       </c>
       <c r="D156" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F156" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B157" s="13">
         <v>44331.708333333336</v>
@@ -36426,18 +35104,18 @@
         <v>44332.583333333336</v>
       </c>
       <c r="D157" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F157" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B158" s="13">
         <v>44334</v>
@@ -36446,15 +35124,15 @@
         <v>44335</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B159" s="13">
         <v>44352.03125</v>
@@ -36463,18 +35141,18 @@
         <v>44352.864583333336</v>
       </c>
       <c r="D159" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E159" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F159" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B160" s="13">
         <v>44355.409722222219</v>
@@ -36483,18 +35161,18 @@
         <v>44358.576388888891</v>
       </c>
       <c r="D160" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F160" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B161" s="13">
         <v>44368.201388888891</v>
@@ -36503,18 +35181,18 @@
         <v>44372.784722222219</v>
       </c>
       <c r="D161" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B162" s="13">
         <v>44403</v>
@@ -36523,12 +35201,12 @@
         <v>44404</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B163" s="13">
         <v>44415.138888888891</v>
@@ -36537,12 +35215,12 @@
         <v>44416.833333333336</v>
       </c>
       <c r="D163" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B164" s="13">
         <v>44418.097222222219</v>
@@ -36551,12 +35229,12 @@
         <v>44418.513888888891</v>
       </c>
       <c r="D164" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B165" s="13">
         <v>44420.680555555555</v>
@@ -36565,12 +35243,12 @@
         <v>44421.180555555555</v>
       </c>
       <c r="D165" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B166" s="13">
         <v>44423</v>
@@ -36579,12 +35257,12 @@
         <v>44424</v>
       </c>
       <c r="D166" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" s="13">
         <v>44429</v>
@@ -36593,12 +35271,12 @@
         <v>44430</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B168" s="13">
         <v>44448.951388888891</v>
@@ -36607,12 +35285,12 @@
         <v>44449.461805555555</v>
       </c>
       <c r="D168" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B169" s="13">
         <v>44334</v>
@@ -36621,15 +35299,15 @@
         <v>44335.25</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F169" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B170" s="13">
         <v>44367.472222222219</v>
@@ -36638,15 +35316,15 @@
         <v>44368.097222222219</v>
       </c>
       <c r="D170" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E170" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B171" s="13">
         <v>44395.125</v>
@@ -36655,12 +35333,12 @@
         <v>44396.125</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B172" s="13">
         <v>44403</v>
@@ -36669,12 +35347,12 @@
         <v>44404</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B173" s="13">
         <v>44420.871527777781</v>
@@ -36683,12 +35361,12 @@
         <v>44421.583333333336</v>
       </c>
       <c r="D173" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174" s="13">
         <v>44425.395833333336</v>
@@ -36697,12 +35375,12 @@
         <v>44426.232638888891</v>
       </c>
       <c r="D174" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B175" s="13">
         <v>44442.833333333336</v>
@@ -36711,12 +35389,12 @@
         <v>44444.104166666664</v>
       </c>
       <c r="D175" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B176" s="13">
         <v>44334</v>
@@ -36725,15 +35403,15 @@
         <v>44335.25</v>
       </c>
       <c r="D176" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B177" s="13">
         <v>44395.125</v>
@@ -36742,12 +35420,12 @@
         <v>44396.125</v>
       </c>
       <c r="D177" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B178" s="13">
         <v>44403</v>
@@ -36756,12 +35434,12 @@
         <v>44404</v>
       </c>
       <c r="D178" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B179" s="13">
         <v>44334</v>
@@ -36770,15 +35448,15 @@
         <v>44335.25</v>
       </c>
       <c r="D179" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F179" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B180" s="13">
         <v>44395.125</v>
@@ -36787,12 +35465,12 @@
         <v>44396.125</v>
       </c>
       <c r="D180" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B181" s="13">
         <v>44403</v>
@@ -36801,12 +35479,12 @@
         <v>44404</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B182" s="13">
         <v>44324.041666666664</v>
@@ -36815,15 +35493,15 @@
         <v>44326.954861111109</v>
       </c>
       <c r="D182" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F182" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B183" s="13">
         <v>44329.875</v>
@@ -36832,15 +35510,15 @@
         <v>44329.958333333336</v>
       </c>
       <c r="D183" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F183" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B184" s="13">
         <v>44334</v>
@@ -36849,15 +35527,15 @@
         <v>44335.25</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F184" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B185" s="13">
         <v>44343.958333333336</v>
@@ -36866,15 +35544,15 @@
         <v>44345.208333333336</v>
       </c>
       <c r="D185" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B186" s="13">
         <v>44395.125</v>
@@ -36883,12 +35561,12 @@
         <v>44396.125</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B187" s="13">
         <v>44403</v>
@@ -36897,12 +35575,12 @@
         <v>44404</v>
       </c>
       <c r="D187" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B188" s="13">
         <v>44426.201388888891</v>
@@ -36911,12 +35589,12 @@
         <v>44426.909722222219</v>
       </c>
       <c r="D188" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B189" s="13">
         <v>44440.451388888891</v>
@@ -36925,12 +35603,12 @@
         <v>44441.243055555555</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B190" s="13">
         <v>44442.618055555555</v>
@@ -36939,12 +35617,12 @@
         <v>44443</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B191" s="13">
         <v>44443.701388888891</v>
@@ -36953,12 +35631,12 @@
         <v>44444.201388888891</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B192" s="13">
         <v>44444.493055555555</v>
@@ -36967,12 +35645,12 @@
         <v>44449.159722222219</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B193" s="13">
         <v>44331.25</v>
@@ -36981,15 +35659,15 @@
         <v>44335</v>
       </c>
       <c r="D193" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F193" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B194" s="13">
         <v>44370</v>
@@ -36998,15 +35676,15 @@
         <v>44371</v>
       </c>
       <c r="D194" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F194" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B195" s="13">
         <v>44383.545138888891</v>
@@ -37015,12 +35693,12 @@
         <v>44386.503472222219</v>
       </c>
       <c r="D195" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B196" s="13">
         <v>44395.125</v>
@@ -37029,12 +35707,12 @@
         <v>44397.59375</v>
       </c>
       <c r="D196" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B197" s="13">
         <v>44403</v>
@@ -37043,15 +35721,15 @@
         <v>44405</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E197" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B198" s="13">
         <v>44405.270833333336</v>
@@ -37060,15 +35738,15 @@
         <v>44412.697916666664</v>
       </c>
       <c r="D198" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E198" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B199" s="13">
         <v>44429</v>
@@ -37077,12 +35755,12 @@
         <v>44430</v>
       </c>
       <c r="D199" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B200" s="13">
         <v>44439</v>
@@ -37091,12 +35769,12 @@
         <v>44440</v>
       </c>
       <c r="D200" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B201" s="13">
         <v>44324.166666666664</v>
@@ -37105,15 +35783,15 @@
         <v>44324.291666666664</v>
       </c>
       <c r="D201" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F201" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B202" s="13">
         <v>44329.875</v>
@@ -37122,15 +35800,15 @@
         <v>44330.270833333336</v>
       </c>
       <c r="D202" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F202" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B203" s="13">
         <v>44331.25</v>
@@ -37139,15 +35817,15 @@
         <v>44335</v>
       </c>
       <c r="D203" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F203" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B204" s="13">
         <v>44344.104166666664</v>
@@ -37156,15 +35834,15 @@
         <v>44349.479166666664</v>
       </c>
       <c r="D204" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F204" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B205" s="13">
         <v>44369.5625</v>
@@ -37173,12 +35851,12 @@
         <v>44370.0625</v>
       </c>
       <c r="D205" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B206" s="13">
         <v>44370</v>
@@ -37187,12 +35865,12 @@
         <v>44371</v>
       </c>
       <c r="D206" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B207" s="13">
         <v>44372.229166666664</v>
@@ -37201,12 +35879,12 @@
         <v>44372.5625</v>
       </c>
       <c r="D207" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B208" s="13">
         <v>44382.875</v>
@@ -37215,12 +35893,12 @@
         <v>44383.333333333336</v>
       </c>
       <c r="D208" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B209" s="13">
         <v>44385.625</v>
@@ -37231,7 +35909,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B210" s="13">
         <v>44395.125</v>
@@ -37240,12 +35918,12 @@
         <v>44397.565972222219</v>
       </c>
       <c r="D210" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B211" s="13">
         <v>44403</v>
@@ -37254,12 +35932,12 @@
         <v>44406.5</v>
       </c>
       <c r="D211" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B212" s="13">
         <v>44331.25</v>
@@ -37268,15 +35946,15 @@
         <v>44335</v>
       </c>
       <c r="D212" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F212" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B213" s="13">
         <v>44370</v>
@@ -37285,12 +35963,12 @@
         <v>44371</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B214" s="13">
         <v>44387</v>
@@ -37299,15 +35977,15 @@
         <v>44395.125</v>
       </c>
       <c r="D214" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E214" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B215" s="13">
         <v>44395.125</v>
@@ -37316,12 +35994,12 @@
         <v>44396.125</v>
       </c>
       <c r="D215" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B216" s="13">
         <v>44396.125</v>
@@ -37330,15 +36008,15 @@
         <v>44405.486111111109</v>
       </c>
       <c r="D216" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E216" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B217" s="13">
         <v>44332</v>
@@ -37347,15 +36025,15 @@
         <v>44333</v>
       </c>
       <c r="D217" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F217" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" s="13">
         <v>44370</v>
@@ -37364,12 +36042,12 @@
         <v>44371</v>
       </c>
       <c r="D218" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B219" s="13">
         <v>44403</v>
@@ -37378,12 +36056,12 @@
         <v>44404</v>
       </c>
       <c r="D219" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B220" s="13">
         <v>44404</v>
@@ -37392,12 +36070,12 @@
         <v>44418</v>
       </c>
       <c r="D220" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B221" s="13">
         <v>44439</v>
@@ -37406,12 +36084,12 @@
         <v>44440</v>
       </c>
       <c r="D221" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B222" s="13">
         <v>44332</v>
@@ -37420,15 +36098,15 @@
         <v>44333</v>
       </c>
       <c r="D222" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F222" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B223" s="13">
         <v>44345.625</v>
@@ -37437,15 +36115,15 @@
         <v>44351.375</v>
       </c>
       <c r="D223" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F223" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B224" s="13">
         <v>44370</v>
@@ -37454,12 +36132,12 @@
         <v>44371</v>
       </c>
       <c r="D224" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B225" s="13">
         <v>44403</v>
@@ -37468,12 +36146,12 @@
         <v>44404</v>
       </c>
       <c r="D225" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B226" s="13">
         <v>44405.618055555555</v>
@@ -37482,12 +36160,12 @@
         <v>44414.572916666664</v>
       </c>
       <c r="D226" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B227" s="13">
         <v>44439</v>
@@ -37496,12 +36174,12 @@
         <v>44440</v>
       </c>
       <c r="D227" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B228" s="13">
         <v>44332</v>
@@ -37510,15 +36188,15 @@
         <v>44333</v>
       </c>
       <c r="D228" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F228" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B229" s="13">
         <v>44370</v>
@@ -37527,12 +36205,12 @@
         <v>44371</v>
       </c>
       <c r="D229" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B230" s="13">
         <v>44403</v>
@@ -37541,12 +36219,12 @@
         <v>44404</v>
       </c>
       <c r="D230" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B231" s="13">
         <v>44439</v>
@@ -37555,12 +36233,12 @@
         <v>44440</v>
       </c>
       <c r="D231" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B232" s="13">
         <v>44326.166666666664</v>
@@ -37569,15 +36247,15 @@
         <v>44328.416666666664</v>
       </c>
       <c r="D232" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F232" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B233" s="13">
         <v>44330.208333333336</v>
@@ -37586,15 +36264,15 @@
         <v>44333.208333333336</v>
       </c>
       <c r="D233" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F233" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B234" s="13">
         <v>44334</v>
@@ -37603,15 +36281,15 @@
         <v>44335</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F234" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B235" s="13">
         <v>44334.5</v>
@@ -37620,15 +36298,15 @@
         <v>44335.125</v>
       </c>
       <c r="D235" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F235" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B236" s="13">
         <v>44340.145833333336</v>
@@ -37637,15 +36315,15 @@
         <v>44341.458333333336</v>
       </c>
       <c r="D236" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F236" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B237" s="13">
         <v>44361.666666666664</v>
@@ -37654,12 +36332,12 @@
         <v>44362.503472222219</v>
       </c>
       <c r="D237" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B238" s="13">
         <v>44362.75</v>
@@ -37668,12 +36346,12 @@
         <v>44363.125</v>
       </c>
       <c r="D238" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B239" s="13">
         <v>44364.520833333336</v>
@@ -37682,12 +36360,12 @@
         <v>44364</v>
       </c>
       <c r="D239" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B240" s="13">
         <v>44371.416666666664</v>
@@ -37696,12 +36374,12 @@
         <v>44371.916666666664</v>
       </c>
       <c r="D240" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B241" s="13">
         <v>44373.875</v>
@@ -37710,12 +36388,12 @@
         <v>44374.25</v>
       </c>
       <c r="D241" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B242" s="13">
         <v>44376.041666666664</v>
@@ -37724,12 +36402,12 @@
         <v>44378.166666666664</v>
       </c>
       <c r="D242" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B243" s="13">
         <v>44392.229166666664</v>
@@ -37738,12 +36416,12 @@
         <v>44392.559027777781</v>
       </c>
       <c r="D243" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B244" s="13">
         <v>44395.125</v>
@@ -37752,12 +36430,12 @@
         <v>44396.125</v>
       </c>
       <c r="D244" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B245" s="13">
         <v>44399.309027777781</v>
@@ -37766,12 +36444,12 @@
         <v>44400.184027777781</v>
       </c>
       <c r="D245" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B246" s="13">
         <v>44401.350694444445</v>
@@ -37780,12 +36458,12 @@
         <v>44402.309027777781</v>
       </c>
       <c r="D246" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B247" s="13">
         <v>44403</v>
@@ -37794,12 +36472,12 @@
         <v>44404</v>
       </c>
       <c r="D247" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B248" s="13">
         <v>44443.347222222219</v>
@@ -37808,12 +36486,12 @@
         <v>44444.805555555555</v>
       </c>
       <c r="D248" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B249" s="16">
         <v>44321.003472222219</v>
@@ -37822,15 +36500,15 @@
         <v>44322.003472222219</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F249" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B250" s="13">
         <v>44334</v>
@@ -37839,15 +36517,15 @@
         <v>44335</v>
       </c>
       <c r="D250" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F250" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B251" s="13">
         <v>44340.065972222219</v>
@@ -37856,15 +36534,15 @@
         <v>44340.565972222219</v>
       </c>
       <c r="D251" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F251" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252" s="13">
         <v>44344.149305555555</v>
@@ -37873,15 +36551,15 @@
         <v>44345.190972222219</v>
       </c>
       <c r="D252" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F252" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B253" s="13">
         <v>44346.149305555555</v>
@@ -37890,15 +36568,15 @@
         <v>44351.458333333336</v>
       </c>
       <c r="D253" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F253" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" s="13">
         <v>44395.125</v>
@@ -37907,12 +36585,12 @@
         <v>44396.125</v>
       </c>
       <c r="D254" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B255" s="13">
         <v>44403</v>
@@ -37921,7 +36599,7 @@
         <v>44404</v>
       </c>
       <c r="D255" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -37945,9 +36623,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{815A1C5E-19A1-402F-8612-4224D7150245}">
           <x14:formula1>
-            <xm:f>Site_List!$A$2:$A$24</xm:f>
+            <xm:f>Site_List!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A14 A23:A156 A182:A1048576</xm:sqref>
+          <xm:sqref>A14 A182:A1048576 A23:A156</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -37974,30 +36652,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="13">
         <v>44376</v>
@@ -38014,7 +36692,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13">
         <v>44317</v>
@@ -38031,7 +36709,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13">
         <v>44397.493055555555</v>
@@ -38048,7 +36726,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="13">
         <v>44317</v>
@@ -38065,7 +36743,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="13">
         <v>44317</v>
@@ -38082,7 +36760,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13">
         <v>44317</v>
@@ -38099,7 +36777,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="13">
         <v>44371</v>
@@ -38116,7 +36794,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="13">
         <v>44317</v>
@@ -38133,7 +36811,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10" s="13">
         <v>44390.916666666664</v>
@@ -38150,7 +36828,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="13">
         <v>44317</v>
@@ -38167,7 +36845,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="13">
         <v>44412.003472222219</v>
@@ -38184,7 +36862,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="13">
         <v>44317</v>
@@ -38201,7 +36879,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="13">
         <v>44371.506944444445</v>
@@ -38218,7 +36896,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="13">
         <v>44399.694444444445</v>
@@ -38235,7 +36913,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="13">
         <v>44317</v>
@@ -38252,7 +36930,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="13">
         <v>44400.715277777781</v>
@@ -38269,7 +36947,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="13">
         <v>44405.5</v>
@@ -38286,7 +36964,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13">
         <v>44317</v>
@@ -38303,7 +36981,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="13">
         <v>44395.177083333336</v>
@@ -38320,7 +36998,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="13">
         <v>44400.697916666664</v>
@@ -38337,7 +37015,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13">
         <v>44434.517361111109</v>
@@ -38354,7 +37032,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="13">
         <v>44435.065972222219</v>
@@ -38371,7 +37049,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="13">
         <v>44396</v>
@@ -38388,7 +37066,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="13">
         <v>44317</v>
@@ -38405,7 +37083,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="13">
         <v>44317</v>
@@ -38422,7 +37100,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13">
         <v>44317</v>
@@ -38439,7 +37117,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="13">
         <v>44396.107638888891</v>
@@ -38456,7 +37134,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="13">
         <v>44317</v>
@@ -38473,7 +37151,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="13">
         <v>44317</v>
@@ -38490,7 +37168,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="13">
         <v>44317</v>
@@ -38507,7 +37185,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="13">
         <v>44375.649305555555</v>
@@ -38522,12 +37200,12 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="13">
         <v>44378.003472222219</v>
@@ -38544,7 +37222,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="13">
         <v>44409</v>
@@ -38561,7 +37239,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="13">
         <v>44317</v>
@@ -38578,7 +37256,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="13">
         <v>44317</v>
@@ -38595,7 +37273,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="13">
         <v>44317</v>
@@ -38612,7 +37290,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="13">
         <v>44317</v>
@@ -38629,7 +37307,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="13">
         <v>44397.59375</v>
@@ -38646,7 +37324,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="13">
         <v>44399.168055555558</v>
@@ -38663,7 +37341,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="13">
         <v>44317</v>
@@ -38680,7 +37358,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="13">
         <v>44317</v>
@@ -38697,7 +37375,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="13">
         <v>44317</v>
@@ -38714,7 +37392,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="13">
         <v>44317</v>
@@ -38731,7 +37409,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="13">
         <v>44317</v>
@@ -38748,7 +37426,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="13">
         <v>44317</v>
@@ -38765,7 +37443,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="13">
         <v>44317</v>
@@ -38782,205 +37460,259 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{87D343E4-BB51-41AF-BC58-B8E3885FCAB8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{91E6EF9C-E753-40EA-979A-EC5C2312EF03}">
       <formula1>"AM, JN, GM, JE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="32">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A50B287E-E901-46BD-B5A5-466EA5F836AB}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="41">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55FA6D57-8154-4EF3-A669-C1A743642904}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A68</xm:f>
+            <xm:f>Site_List!A9:A52</xm:f>
+          </x14:formula1>
+          <xm:sqref>A61:A64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F273B98F-A47D-4DA2-8191-7F06AD9D9E5B}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A56</xm:f>
+          </x14:formula1>
+          <xm:sqref>A65:A1048549</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5208E85-3745-4789-B4A3-C4055970FC65}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A37</xm:f>
+          </x14:formula1>
+          <xm:sqref>A46:A51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA3BEAB2-514F-445B-BB01-0855C37ECF21}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A52:A59</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B56433F-0028-454C-AE5C-1F3BB90A31CC}">
+          <x14:formula1>
+            <xm:f>Site_List!A9:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A60</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3A33BD3-9C2A-4035-A760-93F21ACEF21B}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A34</xm:f>
           </x14:formula1>
           <xm:sqref>A43</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16D1C3AC-44C3-4CD6-9DDC-C526831AF028}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E7D8658-A255-4775-A243-3B2FA8758508}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A61</xm:f>
+            <xm:f>Site_List!A7:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E90D9889-CA44-47E2-BA4E-3960BA3938A1}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A33</xm:f>
+          </x14:formula1>
+          <xm:sqref>A42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD853823-1F1F-4265-86F3-FAA0C20C8AEB}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A32</xm:f>
+          </x14:formula1>
+          <xm:sqref>A41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE0CBA55-5E21-4E33-90D4-4AD3C610CDB0}">
+          <x14:formula1>
+            <xm:f>Site_List!A3:A28</xm:f>
+          </x14:formula1>
+          <xm:sqref>A40 A36:A38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF92C034-E6F5-44D3-B117-AB5551428756}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A35</xm:f>
+          </x14:formula1>
+          <xm:sqref>A44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5962A000-F975-4FA9-B85A-3B1D5726D284}">
+          <x14:formula1>
+            <xm:f>Site_List!A3:A27</xm:f>
           </x14:formula1>
           <xm:sqref>A35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA097951-DF36-4547-91D5-1BC1853F1D73}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5188A76-CC01-4255-A767-A4E5FD484BAE}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A62</xm:f>
+            <xm:f>Site_List!A3:A28</xm:f>
           </x14:formula1>
           <xm:sqref>A34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C6F9421-2621-44DE-A0DB-75BB6B0DDB55}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C526A842-7DC6-46EC-8FEB-4BB692348203}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A56</xm:f>
+            <xm:f>Site_List!A3:A22</xm:f>
           </x14:formula1>
           <xm:sqref>A27:A28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A477F8A-F40D-41D4-B4AC-B1C7B69506C0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A90ED2A-A31F-4FCB-9638-8FAB1E8BD850}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A54</xm:f>
+            <xm:f>Site_List!A3:A20</xm:f>
           </x14:formula1>
           <xm:sqref>A22:A23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{643B2FBA-D052-424A-8801-8E166210645D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94B53826-F086-485C-A52E-5EC80C2615C8}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A57</xm:f>
+            <xm:f>Site_List!A5:A31</xm:f>
+          </x14:formula1>
+          <xm:sqref>A39</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1696016-F3B3-4D93-9EDB-54DEA6DAC9CB}">
+          <x14:formula1>
+            <xm:f>Site_List!A3:A23</xm:f>
           </x14:formula1>
           <xm:sqref>A29:A30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{212FABBE-CED0-4D11-A11A-AE4D1EE68C7E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8374954D-B32E-4261-BD1F-2BD87EEFDF9B}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A48</xm:f>
+            <xm:f>Site_List!A3:A14</xm:f>
           </x14:formula1>
           <xm:sqref>A11:A12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF61ED72-F027-410C-8F3A-8C12D9F2E7D3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A40E18C0-D15D-44CB-8966-2371FC011F35}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A49</xm:f>
+            <xm:f>Site_List!A3:A15</xm:f>
           </x14:formula1>
           <xm:sqref>A13:A14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D06798E-BE8B-4540-A7BB-B50D69F24176}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{881F332B-4947-48A9-8D07-46CB1A6838CC}">
           <x14:formula1>
-            <xm:f>Site_List!A18:A66</xm:f>
+            <xm:f>Site_List!A3:A25</xm:f>
           </x14:formula1>
-          <xm:sqref>A40</xm:sqref>
+          <xm:sqref>A31:A32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECAB0005-29EE-42B2-8DE8-4B7462B4A92B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9674890B-EBEF-44CB-9919-318142C445A7}">
           <x14:formula1>
-            <xm:f>Site_List!A18:A69</xm:f>
+            <xm:f>Site_List!A3:A27</xm:f>
           </x14:formula1>
-          <xm:sqref>A44</xm:sqref>
+          <xm:sqref>A33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB92B4C0-4E14-407F-A0F5-A62397D1BC2F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9E87E6D-F554-4D03-89CC-21C62D235DC3}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A70</xm:f>
+            <xm:f>Site_List!A3:A19</xm:f>
           </x14:formula1>
-          <xm:sqref>A45</xm:sqref>
+          <xm:sqref>A24:A25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC66D65C-7A29-4377-99A4-F4D5471947F5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{907FC208-A62F-4134-A768-1299C5229B2A}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A67</xm:f>
+            <xm:f>Site_List!A3:A21</xm:f>
           </x14:formula1>
-          <xm:sqref>A42 A61:A1048549</xm:sqref>
+          <xm:sqref>A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E613E154-DC3C-4400-A0BC-2569DFE2F301}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{658845DE-6160-4E0F-BBF0-3B4388FC380E}">
           <x14:formula1>
-            <xm:f>Site_List!A18:A66</xm:f>
+            <xm:f>Site_List!A3:A17</xm:f>
           </x14:formula1>
-          <xm:sqref>A41 A46:A47</xm:sqref>
+          <xm:sqref>A19:A20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C069F58-0A45-467A-9863-79C69D26436D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9EDCE26-F663-4254-B4E8-9F0428550958}">
           <x14:formula1>
-            <xm:f>Site_List!A30:A73</xm:f>
+            <xm:f>Site_List!A3:A19</xm:f>
           </x14:formula1>
-          <xm:sqref>A48:A60</xm:sqref>
+          <xm:sqref>A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F0C1116-CF7E-4963-9B93-01018D2CB924}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AB3B07F-F64D-42D3-AFC4-24AC14B30B31}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A62</xm:f>
+            <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
-          <xm:sqref>A36:A37</xm:sqref>
+          <xm:sqref>A16:A17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70916389-E7FB-4DAD-85D7-8770450DB494}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{269AC058-06E9-4F47-9671-EBE80F72EB2A}">
           <x14:formula1>
-            <xm:f>Site_List!A14:A64</xm:f>
+            <xm:f>Site_List!A3:A18</xm:f>
           </x14:formula1>
-          <xm:sqref>A38:A39</xm:sqref>
+          <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{14725DCD-E95D-4377-B5F7-4455986214BB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31C0B777-3602-44EA-8582-DBF8B8073914}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A59</xm:f>
-          </x14:formula1>
-          <xm:sqref>A31:A33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C135A59-4E8D-4F76-A95E-C5A9D86B4BE4}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A53</xm:f>
-          </x14:formula1>
-          <xm:sqref>A24:A26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AAA65B54-EEE3-4E0C-A37E-9248F65F9C96}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A51</xm:f>
-          </x14:formula1>
-          <xm:sqref>A19:A21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF032327-98D4-4FD7-A45E-46DDDD5B2155}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A50</xm:f>
-          </x14:formula1>
-          <xm:sqref>A16:A18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9CBE672-87AC-44EF-AC99-C248609E7736}">
-          <x14:formula1>
-            <xm:f>Site_List!A8:A50</xm:f>
+            <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
           <xm:sqref>A15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AAA0668-622D-41CC-8882-9F63D85DB050}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E932E77A-A298-4D10-AC10-DFD871F31457}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A41</xm:f>
+            <xm:f>Site_List!A2:A8</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C18A5B69-7C40-43DB-BDD5-F177FB5865A7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11824570-7123-40EE-B034-A0664B3C58AD}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A42</xm:f>
+            <xm:f>Site_List!A2:A9</xm:f>
           </x14:formula1>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1DA29BBD-0800-4E62-B218-D309CD52BD26}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{438B8370-646F-4025-A1D3-E4FA9A793A7D}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A42</xm:f>
+            <xm:f>Site_List!A2:A11</xm:f>
           </x14:formula1>
-          <xm:sqref>A10 A4:A5</xm:sqref>
+          <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E12326F7-3054-4093-B56B-F0B373133450}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E067DF98-5452-4967-ADBE-FEC2FAC5B06F}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048541</xm:f>
+            <xm:f>Site_List!A3:A11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A7:A8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{537C5481-A44C-47DC-A691-B36AB6B38248}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A13</xm:f>
+          </x14:formula1>
+          <xm:sqref>A9:A10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A614AE93-053F-4FCF-BCBB-78A06EA089EB}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10835614-22C6-4F2F-9D0F-985A5087C608}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048507</xm:f>
           </x14:formula1>
           <xm:sqref>A1048560</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{016A496E-8A10-4E24-9DAB-AC844CE7F995}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{876AE236-9AF4-47CC-9BEA-E7C28661AC88}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048540</xm:f>
+            <xm:f>Site_List!A1:A1048506</xm:f>
           </x14:formula1>
           <xm:sqref>A1048559</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0D2F3B1-B76B-4941-AC4D-75DC7B1F1426}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{701CF469-A4F1-4144-9749-DE62B3BD4C04}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048539</xm:f>
+            <xm:f>Site_List!A1:A1048505</xm:f>
           </x14:formula1>
           <xm:sqref>A1048558</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A64804C1-E45E-4984-ACD5-22E8D3E0FFE0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E66167D6-3244-49CE-854A-B91A77278C3D}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048538</xm:f>
+            <xm:f>Site_List!A1:A1048504</xm:f>
           </x14:formula1>
           <xm:sqref>A1048557</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C38F95A1-1D73-4E10-8876-CCCE38591657}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C60BF83A-D505-4295-A0FB-CF3088A308AF}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048536</xm:f>
+            <xm:f>Site_List!A1:A1048502</xm:f>
           </x14:formula1>
           <xm:sqref>A1048555:A1048556</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB54E6BC-4AF4-4BB9-9982-C5BB47A115D0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B6E65AD-EB9E-4482-9A42-A2C5C1EA8DF1}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048531</xm:f>
+            <xm:f>Site_List!A1:A1048497</xm:f>
           </x14:formula1>
           <xm:sqref>A1048550:A1048554</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A6CDFD3-CC47-4154-A2A1-49B41AA7C06C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{163E0809-E76C-4B86-9F23-9C227A0928F0}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048542</xm:f>
+            <xm:f>Site_List!A1:A1048508</xm:f>
           </x14:formula1>
           <xm:sqref>A1048561:A1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B2C10DE-0585-414B-B076-C26F90043C98}">
-          <x14:formula1>
-            <xm:f>Site_List!A3:A44</xm:f>
-          </x14:formula1>
-          <xm:sqref>A6:A9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -39005,21 +37737,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -39027,7 +37759,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -39035,7 +37767,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -39043,7 +37775,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -39051,7 +37783,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -39059,7 +37791,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -39067,7 +37799,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -39075,7 +37807,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -39083,7 +37815,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -39091,7 +37823,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -39099,7 +37831,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -39107,7 +37839,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -39115,7 +37847,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -39123,7 +37855,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -39131,7 +37863,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -39139,7 +37871,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -39147,7 +37879,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -39155,7 +37887,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -39163,7 +37895,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -39171,7 +37903,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -39179,7 +37911,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -39187,7 +37919,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -39195,7 +37927,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -39203,7 +37935,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -39211,7 +37943,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -39219,7 +37951,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -39227,7 +37959,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -39235,7 +37967,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -39243,7 +37975,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -39251,7 +37983,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -39259,7 +37991,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -39267,7 +37999,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -39275,101 +38007,149 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{146BE420-BBB5-42AD-90DA-5D1258F3F8CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{574E29BA-68F3-4783-BAB6-2F045D1DE0C9}">
       <formula1>"AM, JN, GM, JE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E5506F80-FB6A-470C-ADFF-CCD38423CB50}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="23">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A068A7B0-3E65-4891-9466-C8EE7B016281}">
           <x14:formula1>
-            <xm:f>Site_List!A3:A44</xm:f>
+            <xm:f>Site_List!A9:A52</xm:f>
           </x14:formula1>
-          <xm:sqref>A12:A13 A5:A8</xm:sqref>
+          <xm:sqref>A47:A50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D5D8A4C-7990-474A-8CD9-B6CFFEB02007}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A147963-35AD-4F6D-ACA4-7CBA516E3E50}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A57</xm:f>
+            <xm:f>Site_List!A12:A56</xm:f>
+          </x14:formula1>
+          <xm:sqref>A51:A1048532</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D11CBFD-F00F-4F7E-BB30-1A9A3236EF12}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A37</xm:f>
+          </x14:formula1>
+          <xm:sqref>A32:A37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBB3F225-FA1E-407A-9D67-1CAE909E823B}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A38:A45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69226020-C957-400D-AAD5-40CAD1D9EB3D}">
+          <x14:formula1>
+            <xm:f>Site_List!A9:A51</xm:f>
+          </x14:formula1>
+          <xm:sqref>A46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B25ED753-9EF9-4752-9102-9FA25067DF34}">
+          <x14:formula1>
+            <xm:f>Site_List!A7:A23</xm:f>
           </x14:formula1>
           <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{951BF909-7B9A-4D80-9BB4-6827B1616D79}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECD5A58D-0B4B-4A90-8F2E-914E16E95CD9}">
           <x14:formula1>
-            <xm:f>Site_List!A10:A62</xm:f>
-          </x14:formula1>
-          <xm:sqref>A23:A24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CFA68AB-9027-44AA-892D-DE4AFA5F411C}">
-          <x14:formula1>
-            <xm:f>Site_List!A23:A68</xm:f>
+            <xm:f>Site_List!A7:A34</xm:f>
           </x14:formula1>
           <xm:sqref>A29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{469B1378-73FA-420A-934A-A4E995E05BCC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F377BE57-5000-40B8-927D-5C9F2AF441BF}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A42</xm:f>
-          </x14:formula1>
-          <xm:sqref>A19 A9:A11 A3:A4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{874A2821-F529-4212-9110-6B88994B22E1}">
-          <x14:formula1>
-            <xm:f>Site_List!A23:A70</xm:f>
+            <xm:f>Site_List!A7:A36</xm:f>
           </x14:formula1>
           <xm:sqref>A31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C6E81F9-582D-4488-BA4F-90F9C7EAEEF0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{559670AF-B14D-4DB0-8C24-E6A3B86E27FC}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A56</xm:f>
+            <xm:f>Site_List!A5:A20</xm:f>
           </x14:formula1>
-          <xm:sqref>A17</xm:sqref>
+          <xm:sqref>A17 A15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{571FDA5C-140F-40B9-AC96-0FF96480308D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{290C5037-83D5-45AD-B7AD-FE85B898035E}">
           <x14:formula1>
-            <xm:f>Site_List!A23:A67</xm:f>
+            <xm:f>Site_List!A5:A31</xm:f>
           </x14:formula1>
-          <xm:sqref>A28 A47:A1048532</xm:sqref>
+          <xm:sqref>A28 A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCC10EB7-5690-49DD-9F91-1514A1EEB830}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D7BD929-6718-45B1-8D04-3C71A060CB75}">
           <x14:formula1>
-            <xm:f>Site_List!A8:A59</xm:f>
+            <xm:f>Site_List!A3:A28</xm:f>
           </x14:formula1>
-          <xm:sqref>A30 A20:A22</xm:sqref>
+          <xm:sqref>A27 A23:A25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D9BCCBA-E9AC-4BCC-8450-33ECF4AEF916}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{965B60FD-2A86-48F2-B76A-0491563767AA}">
           <x14:formula1>
-            <xm:f>Site_List!A18:A55</xm:f>
+            <xm:f>Site_List!A7:A24</xm:f>
           </x14:formula1>
-          <xm:sqref>A16</xm:sqref>
+          <xm:sqref>A19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E11AC72-45BD-4BE2-A3C0-52CC9730CF18}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FAD1BF-7D68-40CA-BF6D-4DD7948A4751}">
           <x14:formula1>
-            <xm:f>Site_List!A18:A66</xm:f>
+            <xm:f>Site_List!A7:A35</xm:f>
           </x14:formula1>
-          <xm:sqref>A27 A32:A33</xm:sqref>
+          <xm:sqref>A30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C06900A-E219-4B8C-8B41-9B5239FF51E2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4D8F721-C1B3-4820-8E18-7817951E98CE}">
           <x14:formula1>
-            <xm:f>Site_List!A30:A73</xm:f>
+            <xm:f>Site_List!A3:A17</xm:f>
           </x14:formula1>
-          <xm:sqref>A34:A46</xm:sqref>
+          <xm:sqref>A16 A12:A14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0BE0A669-118C-4D65-9B03-2E7DF719E365}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C81407-737E-4E77-9A59-AE51FF8A89B1}">
           <x14:formula1>
-            <xm:f>Site_List!A14:A64</xm:f>
+            <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
-          <xm:sqref>A25:A26</xm:sqref>
+          <xm:sqref>A11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{090F10A3-96C2-439F-A040-1F56976782C2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F22104C2-B30B-4938-AB3E-214C98A57858}">
           <x14:formula1>
-            <xm:f>Site_List!A2:A41</xm:f>
+            <xm:f>Site_List!A3:A25</xm:f>
           </x14:formula1>
-          <xm:sqref>A14:A15 A2</xm:sqref>
+          <xm:sqref>A20:A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54FEA14D-50E9-4531-9894-0F9DB060D9BF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{741E6A23-ED03-4798-9A4C-61159A0CFB09}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048528</xm:f>
+            <xm:f>Site_List!A3:A27</xm:f>
+          </x14:formula1>
+          <xm:sqref>A22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F0095D-AD1D-4033-868E-31C22717066F}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7084232-C788-462E-87DF-7B9E8937D3C5}">
+          <x14:formula1>
+            <xm:f>Site_List!A3:A11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A6:A7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81F8330B-C510-438E-8A34-C333F9E61BC4}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A13</xm:f>
+          </x14:formula1>
+          <xm:sqref>A8:A10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AEAE032-A037-4C2D-A152-3C7492D0A0E1}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E54960D-C21A-4C6D-8C9A-98EF6BD17B56}">
+          <x14:formula1>
+            <xm:f>Site_List!A2:A8</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78BFE54D-C475-4A47-96C3-F25DF31224DF}">
+          <x14:formula1>
+            <xm:f>Site_List!A1:A1048494</xm:f>
           </x14:formula1>
           <xm:sqref>A1048533:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -39397,21 +38177,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -39425,7 +38205,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-4.8499999999999996</v>
@@ -39439,7 +38219,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-1.2</v>
@@ -39453,7 +38233,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-4.78</v>
@@ -39467,7 +38247,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-2.76</v>
@@ -39481,7 +38261,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-3.2</v>
@@ -39495,7 +38275,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>-1.66</v>
@@ -39509,7 +38289,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>-6.58</v>
@@ -39523,7 +38303,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>-1.8</v>
@@ -39537,7 +38317,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>-3.59</v>
@@ -39551,7 +38331,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>-1.97</v>
@@ -39565,7 +38345,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>-4</v>
@@ -39579,7 +38359,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>-4.24</v>
@@ -39593,7 +38373,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>-6.02</v>
@@ -39607,7 +38387,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>-3.19</v>
@@ -39621,7 +38401,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>-3.7</v>
@@ -39635,7 +38415,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>-1.57</v>
@@ -39649,7 +38429,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>-4.63</v>
@@ -39663,7 +38443,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>-2.1</v>
@@ -39677,7 +38457,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>-4.2</v>
@@ -39691,7 +38471,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>-6.4</v>
@@ -39705,7 +38485,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>-3.85</v>
@@ -39719,7 +38499,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>-1.64</v>
@@ -39733,7 +38513,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-3.19</v>
@@ -39747,7 +38527,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>-5.0599999999999996</v>
@@ -39761,7 +38541,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>-5.48</v>
@@ -39775,7 +38555,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>-1.51</v>
@@ -39789,7 +38569,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>-2.9</v>
@@ -39803,7 +38583,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>-4.87</v>
@@ -39817,7 +38597,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31">
         <v>-1.5</v>
@@ -39831,7 +38611,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>-3.54</v>
@@ -39845,7 +38625,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>-4.04</v>
@@ -39859,67 +38639,67 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED4C8AA-8CB0-4107-96FA-75DCB9467FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BD722-D959-463C-AE71-45CB75495319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="170">
   <si>
     <t>SiteName</t>
   </si>
@@ -553,6 +553,27 @@
   <si>
     <t>MS4-OC-Horno-3</t>
   </si>
+  <si>
+    <t>MS4-EN-Bajada</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>MS4-EN-Cardiff</t>
+  </si>
+  <si>
+    <t>MS4-EN-Pinebranch</t>
+  </si>
+  <si>
+    <t>MS4-EN-EncinitasRanch</t>
+  </si>
+  <si>
+    <t>MS4-EN-Oggis</t>
+  </si>
+  <si>
+    <t>Encinitas</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,8 +643,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +686,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,11 +781,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,9 +879,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1D97161F-0DC7-41E9-9F16-49EEDE4F2F77}"/>
   </cellStyles>
@@ -1307,11 +1374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1789,7 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="40">
         <v>32.820459999999997</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -1754,10 +1821,10 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="40">
         <v>32.818899999999999</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="40">
         <v>-116.959</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -1786,10 +1853,10 @@
       <c r="D13" t="s">
         <v>145</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="21">
         <v>33.508595999999997</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="21">
         <v>-117.707369</v>
       </c>
       <c r="G13" s="35" t="s">
@@ -2042,12 +2109,14 @@
       <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="21">
+      <c r="D27" s="36"/>
+      <c r="E27" s="37">
         <v>33.000059999999998</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="37">
         <v>-116.758686</v>
       </c>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2059,16 +2128,16 @@
       <c r="C28" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="37">
         <v>33.532233900000001</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="37">
         <v>-117.6466183</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="36" t="s">
         <v>160</v>
       </c>
       <c r="H28" s="30">
@@ -2097,16 +2166,16 @@
       <c r="C29" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="38">
         <v>33.534731000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="38">
         <v>-117.64620600000001</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="36" t="s">
         <v>161</v>
       </c>
       <c r="H29" s="30">
@@ -2135,16 +2204,16 @@
       <c r="C30" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="38">
         <v>33.539239700000003</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="38">
         <v>-117.6405702</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="36" t="s">
         <v>162</v>
       </c>
       <c r="H30" s="30">
@@ -2162,14 +2231,211 @@
       <c r="L30" t="s">
         <v>146</v>
       </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="41">
+        <v>33.055900600000001</v>
+      </c>
+      <c r="F31" s="41">
+        <v>-117.26253509999999</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="32">
+        <v>90</v>
+      </c>
+      <c r="J31" s="30">
+        <v>1122</v>
+      </c>
+      <c r="K31">
+        <v>2.5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="41">
+        <v>33.018123000000003</v>
+      </c>
+      <c r="F32" s="41">
+        <v>-117.28167999999999</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" s="32">
+        <v>90</v>
+      </c>
+      <c r="J32" s="30">
+        <v>1122</v>
+      </c>
+      <c r="K32">
+        <v>2.5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="42">
+        <v>33.032756800000001</v>
+      </c>
+      <c r="F33" s="42">
+        <v>-117.25646209999999</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="32">
+        <v>90</v>
+      </c>
+      <c r="J33" s="30">
+        <v>1122</v>
+      </c>
+      <c r="K33">
+        <v>2.5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="43">
+        <v>33.055045</v>
+      </c>
+      <c r="F34" s="43">
+        <v>-117.27834199999999</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="32">
+        <v>90</v>
+      </c>
+      <c r="J34" s="30">
+        <v>1122</v>
+      </c>
+      <c r="K34">
+        <v>2.5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="42">
+        <v>33.047451000000002</v>
+      </c>
+      <c r="F35" s="42">
+        <v>-117.285759</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="32">
+        <v>90</v>
+      </c>
+      <c r="J35" s="30">
+        <v>1122</v>
+      </c>
+      <c r="K35">
+        <v>2.5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="44">
+        <v>33.044567000000001</v>
+      </c>
+      <c r="F36" s="39">
+        <v>-117.277213</v>
+      </c>
+      <c r="G36" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L8" xr:uid="{154D7689-351E-41B0-BB94-CB78FEBF5106}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:F27">
     <sortCondition ref="A14:A27"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E36" r:id="rId1" display="https://sandiego.onerain.com/map/?find_site_id=33&amp;site=6aab73e4-71d6-4084-95d8-a4773c377718" xr:uid="{DCC00738-1C75-449C-B215-1FD103A14E77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2177,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C074892-BB13-4B87-A1DF-1597FFD48EC4}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -37460,257 +37726,287 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{91E6EF9C-E753-40EA-979A-EC5C2312EF03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{CF589369-FCFE-42DC-A41A-82679F85DEE3}">
       <formula1>"AM, JN, GM, JE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="41">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55FA6D57-8154-4EF3-A669-C1A743642904}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="46">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AABCFAAD-B6AE-404F-8D08-0839F687BF77}">
           <x14:formula1>
-            <xm:f>Site_List!A9:A52</xm:f>
+            <xm:f>Site_List!A9:A42</xm:f>
           </x14:formula1>
           <xm:sqref>A61:A64</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F273B98F-A47D-4DA2-8191-7F06AD9D9E5B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4537AA07-D166-4FF6-91AE-0735CEF5B872}">
           <x14:formula1>
-            <xm:f>Site_List!A12:A56</xm:f>
+            <xm:f>Site_List!A12:A46</xm:f>
           </x14:formula1>
-          <xm:sqref>A65:A1048549</xm:sqref>
+          <xm:sqref>A65:A94</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5208E85-3745-4789-B4A3-C4055970FC65}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7578E3AD-69F9-4869-A5DC-35DDFEA61266}">
           <x14:formula1>
-            <xm:f>Site_List!A7:A37</xm:f>
+            <xm:f>Site_List!A37:A76</xm:f>
           </x14:formula1>
-          <xm:sqref>A46:A51</xm:sqref>
+          <xm:sqref>A95:A99</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BA3BEAB2-514F-445B-BB01-0855C37ECF21}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{458D1C6C-3996-474F-9AE4-F8E5A6F7A87A}">
           <x14:formula1>
-            <xm:f>Site_List!A12:A43</xm:f>
+            <xm:f>Site_List!A37:A81</xm:f>
           </x14:formula1>
-          <xm:sqref>A52:A59</xm:sqref>
+          <xm:sqref>A100:A1048549</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B56433F-0028-454C-AE5C-1F3BB90A31CC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{193D44A6-0A0E-4204-82A5-64B3BE2EF7CB}">
           <x14:formula1>
-            <xm:f>Site_List!A9:A51</xm:f>
+            <xm:f>Site_List!A7:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A46</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{895050C1-B766-44E3-A88D-8502FEEC7BFF}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A47:A50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35B3604A-2499-4559-8AD8-175BB5BCE59F}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29ED7775-E995-47B3-B056-9E4F51AE232B}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A52:A55</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971AFF8F-58FE-4237-A0A1-62133E9D9169}">
+          <x14:formula1>
+            <xm:f>Site_List!A16:A37</xm:f>
+          </x14:formula1>
+          <xm:sqref>A56:A59</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4CB41941-2339-47D2-93F0-E15A708FAE8F}">
+          <x14:formula1>
+            <xm:f>Site_List!A9:A41</xm:f>
           </x14:formula1>
           <xm:sqref>A60</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3A33BD3-9C2A-4035-A760-93F21ACEF21B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{083748CA-AF80-4DC2-944A-A37193C7DF36}">
           <x14:formula1>
             <xm:f>Site_List!A7:A34</xm:f>
           </x14:formula1>
           <xm:sqref>A43</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E7D8658-A255-4775-A243-3B2FA8758508}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F5878497-4A20-4467-A8D9-458805265137}">
           <x14:formula1>
             <xm:f>Site_List!A7:A36</xm:f>
           </x14:formula1>
           <xm:sqref>A45</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E90D9889-CA44-47E2-BA4E-3960BA3938A1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AADC3A3-36B2-439B-A6B0-AF79FD79D6C4}">
           <x14:formula1>
             <xm:f>Site_List!A7:A33</xm:f>
           </x14:formula1>
           <xm:sqref>A42</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD853823-1F1F-4265-86F3-FAA0C20C8AEB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{21DF1CCB-F19E-42B5-ADE6-AF977B9C3348}">
           <x14:formula1>
             <xm:f>Site_List!A7:A32</xm:f>
           </x14:formula1>
           <xm:sqref>A41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE0CBA55-5E21-4E33-90D4-4AD3C610CDB0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EF500946-7D68-436D-BFCF-DAA132B7B247}">
           <x14:formula1>
             <xm:f>Site_List!A3:A28</xm:f>
           </x14:formula1>
           <xm:sqref>A40 A36:A38</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BF92C034-E6F5-44D3-B117-AB5551428756}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9982353-55EB-4636-9257-2DEF5CA08B3B}">
           <x14:formula1>
             <xm:f>Site_List!A7:A35</xm:f>
           </x14:formula1>
           <xm:sqref>A44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5962A000-F975-4FA9-B85A-3B1D5726D284}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C28654A4-677E-47F1-B918-C9ADA5871EF9}">
           <x14:formula1>
             <xm:f>Site_List!A3:A27</xm:f>
           </x14:formula1>
           <xm:sqref>A35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B5188A76-CC01-4255-A767-A4E5FD484BAE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DEC8DDBC-6B22-48A8-816B-C62A1DA237A9}">
           <x14:formula1>
             <xm:f>Site_List!A3:A28</xm:f>
           </x14:formula1>
           <xm:sqref>A34</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C526A842-7DC6-46EC-8FEB-4BB692348203}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63C0B069-E19F-4FED-8F8C-8F6D95DAC0BB}">
           <x14:formula1>
             <xm:f>Site_List!A3:A22</xm:f>
           </x14:formula1>
           <xm:sqref>A27:A28</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8A90ED2A-A31F-4FCB-9638-8FAB1E8BD850}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8C8C1465-2BB6-4A12-8C2D-4BBE257D46E2}">
           <x14:formula1>
             <xm:f>Site_List!A3:A20</xm:f>
           </x14:formula1>
           <xm:sqref>A22:A23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94B53826-F086-485C-A52E-5EC80C2615C8}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05CFBE58-9D8F-4182-A2B2-1A34C0196379}">
           <x14:formula1>
             <xm:f>Site_List!A5:A31</xm:f>
           </x14:formula1>
           <xm:sqref>A39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1696016-F3B3-4D93-9EDB-54DEA6DAC9CB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{32E5FEA4-D962-41D7-A78E-4C144F2DF65A}">
           <x14:formula1>
             <xm:f>Site_List!A3:A23</xm:f>
           </x14:formula1>
           <xm:sqref>A29:A30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8374954D-B32E-4261-BD1F-2BD87EEFDF9B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36F873B6-40E2-492C-87A2-729624D8E8F0}">
           <x14:formula1>
             <xm:f>Site_List!A3:A14</xm:f>
           </x14:formula1>
           <xm:sqref>A11:A12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A40E18C0-D15D-44CB-8966-2371FC011F35}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C5C27944-905C-49AB-8DD3-385B240E51A8}">
           <x14:formula1>
             <xm:f>Site_List!A3:A15</xm:f>
           </x14:formula1>
           <xm:sqref>A13:A14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{881F332B-4947-48A9-8D07-46CB1A6838CC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{593D16CE-BEFC-4D26-8E1D-46CBC1F92D4F}">
           <x14:formula1>
             <xm:f>Site_List!A3:A25</xm:f>
           </x14:formula1>
           <xm:sqref>A31:A32</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9674890B-EBEF-44CB-9919-318142C445A7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6127623F-7DD9-4BDA-9C8F-76101347271F}">
           <x14:formula1>
             <xm:f>Site_List!A3:A27</xm:f>
           </x14:formula1>
           <xm:sqref>A33</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9E87E6D-F554-4D03-89CC-21C62D235DC3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7356906B-85DE-461C-82F9-92702B1F80FA}">
           <x14:formula1>
             <xm:f>Site_List!A3:A19</xm:f>
           </x14:formula1>
           <xm:sqref>A24:A25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{907FC208-A62F-4134-A768-1299C5229B2A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74738EB2-5BA3-4E53-A62B-DA803AF79C6C}">
           <x14:formula1>
             <xm:f>Site_List!A3:A21</xm:f>
           </x14:formula1>
           <xm:sqref>A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{658845DE-6160-4E0F-BBF0-3B4388FC380E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{289B1638-61EB-4D28-B465-270215717DB1}">
           <x14:formula1>
             <xm:f>Site_List!A3:A17</xm:f>
           </x14:formula1>
           <xm:sqref>A19:A20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9EDCE26-F663-4254-B4E8-9F0428550958}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5328DC85-54D0-43A0-AE8F-1C4BE66D4D05}">
           <x14:formula1>
             <xm:f>Site_List!A3:A19</xm:f>
           </x14:formula1>
           <xm:sqref>A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AB3B07F-F64D-42D3-AFC4-24AC14B30B31}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61E31E72-5707-4046-B59D-843B97571818}">
           <x14:formula1>
             <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
           <xm:sqref>A16:A17</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{269AC058-06E9-4F47-9671-EBE80F72EB2A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB2D1590-0493-4BF6-AC2D-2BA1B58958AC}">
           <x14:formula1>
             <xm:f>Site_List!A3:A18</xm:f>
           </x14:formula1>
           <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31C0B777-3602-44EA-8582-DBF8B8073914}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3863236C-AA03-464A-8B1D-E8FFB8D5AF9C}">
           <x14:formula1>
             <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
           <xm:sqref>A15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E932E77A-A298-4D10-AC10-DFD871F31457}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75AA0E72-3370-4C52-9B5C-3C0C783558F0}">
           <x14:formula1>
             <xm:f>Site_List!A2:A8</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{11824570-7123-40EE-B034-A0664B3C58AD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{994CA3E1-B0A6-460D-9BED-C6A429BE051E}">
           <x14:formula1>
             <xm:f>Site_List!A2:A9</xm:f>
           </x14:formula1>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{438B8370-646F-4025-A1D3-E4FA9A793A7D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08B06E4E-2BF8-449E-BE3F-02328C74EC7E}">
           <x14:formula1>
             <xm:f>Site_List!A2:A11</xm:f>
           </x14:formula1>
           <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E067DF98-5452-4967-ADBE-FEC2FAC5B06F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F17E4692-265F-4444-B9C7-91B7067CAFAB}">
           <x14:formula1>
             <xm:f>Site_List!A3:A11</xm:f>
           </x14:formula1>
           <xm:sqref>A7:A8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{537C5481-A44C-47DC-A691-B36AB6B38248}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B3FF575-5FC9-4351-8590-FBEA0146DB9B}">
           <x14:formula1>
             <xm:f>Site_List!A2:A13</xm:f>
           </x14:formula1>
           <xm:sqref>A9:A10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A614AE93-053F-4FCF-BCBB-78A06EA089EB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB73F588-D2F8-4D64-8E40-E47FA1151C69}">
           <x14:formula1>
             <xm:f>Site_List!A2:A9</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10835614-22C6-4F2F-9D0F-985A5087C608}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F6F7954-9004-49B9-9AC9-28BA03D8B34F}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048507</xm:f>
+            <xm:f>Site_List!A1:A1048497</xm:f>
           </x14:formula1>
           <xm:sqref>A1048560</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{876AE236-9AF4-47CC-9BEA-E7C28661AC88}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F8F956A-7582-4093-8EFB-6767B37227E3}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048506</xm:f>
+            <xm:f>Site_List!A1:A1048496</xm:f>
           </x14:formula1>
           <xm:sqref>A1048559</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{701CF469-A4F1-4144-9749-DE62B3BD4C04}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E54C4218-7818-4F66-9A3D-0480F543D76E}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048505</xm:f>
+            <xm:f>Site_List!A1:A1048495</xm:f>
           </x14:formula1>
           <xm:sqref>A1048558</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E66167D6-3244-49CE-854A-B91A77278C3D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17202446-DBBE-4305-AD05-4B3958EFB8B8}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048504</xm:f>
+            <xm:f>Site_List!A1:A1048494</xm:f>
           </x14:formula1>
           <xm:sqref>A1048557</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C60BF83A-D505-4295-A0FB-CF3088A308AF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAF7B603-2E38-4A26-A587-076AE4E5FD78}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048502</xm:f>
+            <xm:f>Site_List!A1:A1048492</xm:f>
           </x14:formula1>
           <xm:sqref>A1048555:A1048556</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B6E65AD-EB9E-4482-9A42-A2C5C1EA8DF1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DEBF097-4A0C-4D8A-B69A-855F9A40B238}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048497</xm:f>
+            <xm:f>Site_List!A1:A1048487</xm:f>
           </x14:formula1>
           <xm:sqref>A1048550:A1048554</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{163E0809-E76C-4B86-9F23-9C227A0928F0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39CA6F89-C736-452F-AFA5-F6F305A90D2C}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048508</xm:f>
+            <xm:f>Site_List!A1:A1048498</xm:f>
           </x14:formula1>
           <xm:sqref>A1048561:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -38007,149 +38303,179 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{574E29BA-68F3-4783-BAB6-2F045D1DE0C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{90AE9170-14A8-4178-89B0-CED3C820E027}">
       <formula1>"AM, JN, GM, JE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="23">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A068A7B0-3E65-4891-9466-C8EE7B016281}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="28">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC2A1FB9-8D6E-4486-A8A2-D757753FBC5A}">
           <x14:formula1>
-            <xm:f>Site_List!A9:A52</xm:f>
+            <xm:f>Site_List!A9:A42</xm:f>
           </x14:formula1>
           <xm:sqref>A47:A50</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A147963-35AD-4F6D-ACA4-7CBA516E3E50}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D39D51CD-B13B-490D-AAC0-3B3C4668927F}">
           <x14:formula1>
-            <xm:f>Site_List!A12:A56</xm:f>
+            <xm:f>Site_List!A12:A46</xm:f>
           </x14:formula1>
-          <xm:sqref>A51:A1048532</xm:sqref>
+          <xm:sqref>A51:A80</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D11CBFD-F00F-4F7E-BB30-1A9A3236EF12}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF1A6A5C-F9D2-4409-BE65-B1018B95A840}">
           <x14:formula1>
-            <xm:f>Site_List!A7:A37</xm:f>
+            <xm:f>Site_List!A37:A76</xm:f>
           </x14:formula1>
-          <xm:sqref>A32:A37</xm:sqref>
+          <xm:sqref>A81:A85</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBB3F225-FA1E-407A-9D67-1CAE909E823B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F9C92BB6-B27F-4813-92E4-BFFACCEA0E98}">
           <x14:formula1>
-            <xm:f>Site_List!A12:A43</xm:f>
+            <xm:f>Site_List!A37:A81</xm:f>
           </x14:formula1>
-          <xm:sqref>A38:A45</xm:sqref>
+          <xm:sqref>A86:A1048532</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{69226020-C957-400D-AAD5-40CAD1D9EB3D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8260B00B-87CC-4D94-875B-843F3EBB4430}">
           <x14:formula1>
-            <xm:f>Site_List!A9:A51</xm:f>
+            <xm:f>Site_List!A7:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3E3CAF4-99F3-42DC-A2BB-4BDF50B73534}">
+          <x14:formula1>
+            <xm:f>Site_List!A8:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A33:A36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2AE5072E-C7D4-4B0D-B3B9-18C89771ABC7}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A37</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B3A0D8F-C8DD-43F5-BA35-A607C1473EE6}">
+          <x14:formula1>
+            <xm:f>Site_List!A12:A36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A38:A41</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A60E0BF0-ECBC-458D-9A58-E3B80E33BB71}">
+          <x14:formula1>
+            <xm:f>Site_List!A16:A37</xm:f>
+          </x14:formula1>
+          <xm:sqref>A42:A45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00C9E053-7FF7-480E-A4B4-739FCFA8D9A4}">
+          <x14:formula1>
+            <xm:f>Site_List!A9:A41</xm:f>
           </x14:formula1>
           <xm:sqref>A46</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B25ED753-9EF9-4752-9102-9FA25067DF34}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7971489C-8767-4E14-8593-377AF57C60DF}">
           <x14:formula1>
             <xm:f>Site_List!A7:A23</xm:f>
           </x14:formula1>
           <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ECD5A58D-0B4B-4A90-8F2E-914E16E95CD9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DA005E2E-7338-4698-BAAE-A185D334FC26}">
           <x14:formula1>
             <xm:f>Site_List!A7:A34</xm:f>
           </x14:formula1>
           <xm:sqref>A29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F377BE57-5000-40B8-927D-5C9F2AF441BF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{813AC959-0D41-43F7-AE36-7C7C8284EA3B}">
           <x14:formula1>
             <xm:f>Site_List!A7:A36</xm:f>
           </x14:formula1>
           <xm:sqref>A31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{559670AF-B14D-4DB0-8C24-E6A3B86E27FC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F2158E1-5AE8-45F6-9A62-4B9406320058}">
           <x14:formula1>
             <xm:f>Site_List!A5:A20</xm:f>
           </x14:formula1>
           <xm:sqref>A17 A15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{290C5037-83D5-45AD-B7AD-FE85B898035E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A805639A-B757-42E9-9428-A9A254093959}">
           <x14:formula1>
             <xm:f>Site_List!A5:A31</xm:f>
           </x14:formula1>
           <xm:sqref>A28 A26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D7BD929-6718-45B1-8D04-3C71A060CB75}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C09C9E36-C517-4F43-A7DE-34511F59E482}">
           <x14:formula1>
             <xm:f>Site_List!A3:A28</xm:f>
           </x14:formula1>
           <xm:sqref>A27 A23:A25</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{965B60FD-2A86-48F2-B76A-0491563767AA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A46CD75-B072-4538-BB66-F61ABBF9E4C5}">
           <x14:formula1>
             <xm:f>Site_List!A7:A24</xm:f>
           </x14:formula1>
           <xm:sqref>A19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4FAD1BF-7D68-40CA-BF6D-4DD7948A4751}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C5EC520-7FC6-4384-9772-57F9C4EBFB08}">
           <x14:formula1>
             <xm:f>Site_List!A7:A35</xm:f>
           </x14:formula1>
           <xm:sqref>A30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4D8F721-C1B3-4820-8E18-7817951E98CE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{643913EA-044A-488C-AB1A-EA8D8BD77F72}">
           <x14:formula1>
             <xm:f>Site_List!A3:A17</xm:f>
           </x14:formula1>
           <xm:sqref>A16 A12:A14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98C81407-737E-4E77-9A59-AE51FF8A89B1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58DE3AEC-FE94-4C59-87F7-15DE33C0BC37}">
           <x14:formula1>
             <xm:f>Site_List!A3:A16</xm:f>
           </x14:formula1>
           <xm:sqref>A11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F22104C2-B30B-4938-AB3E-214C98A57858}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{667A60C8-C84E-4445-8BB0-6F7C9FF4EB79}">
           <x14:formula1>
             <xm:f>Site_List!A3:A25</xm:f>
           </x14:formula1>
           <xm:sqref>A20:A21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{741E6A23-ED03-4798-9A4C-61159A0CFB09}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{159FC8AA-E380-4D75-B1AB-BEA026B4689E}">
           <x14:formula1>
             <xm:f>Site_List!A3:A27</xm:f>
           </x14:formula1>
           <xm:sqref>A22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58F0095D-AD1D-4033-868E-31C22717066F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E07EBAEC-9132-451F-8B80-DA06D03207CD}">
           <x14:formula1>
             <xm:f>Site_List!A2:A11</xm:f>
           </x14:formula1>
           <xm:sqref>A5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D7084232-C788-462E-87DF-7B9E8937D3C5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F0654B7-374E-4C87-A546-CBDE55B425AE}">
           <x14:formula1>
             <xm:f>Site_List!A3:A11</xm:f>
           </x14:formula1>
           <xm:sqref>A6:A7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{81F8330B-C510-438E-8A34-C333F9E61BC4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFBD7C26-4C6C-4FF0-86EC-CA1FF035115F}">
           <x14:formula1>
             <xm:f>Site_List!A2:A13</xm:f>
           </x14:formula1>
           <xm:sqref>A8:A10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8AEAE032-A037-4C2D-A152-3C7492D0A0E1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6ACB531C-49B2-4C9D-B052-BE8EA704980E}">
           <x14:formula1>
             <xm:f>Site_List!A2:A9</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E54960D-C21A-4C6D-8C9A-98EF6BD17B56}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09DC0C6B-992B-4C28-B7AD-DF68524448A1}">
           <x14:formula1>
             <xm:f>Site_List!A2:A8</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78BFE54D-C475-4A47-96C3-F25DF31224DF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{923F12A1-E522-4345-B8F3-981E45D280EF}">
           <x14:formula1>
-            <xm:f>Site_List!A1:A1048494</xm:f>
+            <xm:f>Site_List!A1:A1048484</xm:f>
           </x14:formula1>
           <xm:sqref>A1048533:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/Ancillary Files/Site_List.xlsx
+++ b/Ancillary Files/Site_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.messina\Documents\GitHub\2022_County_LowFlow\Ancillary Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7BD722-D959-463C-AE71-45CB75495319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998D2E4-ABCC-478F-988B-0707A4BD6654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_List" sheetId="1" r:id="rId1"/>
